--- a/sisab_scrap_download/sul/cid_f/joined_files/joined_sul.xlsx
+++ b/sisab_scrap_download/sul/cid_f/joined_files/joined_sul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG12"/>
+  <dimension ref="A1:DE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,78 @@
       <c r="CG1" s="2" t="n">
         <v>44562</v>
       </c>
+      <c r="CH1" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="CI1" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="CJ1" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="CK1" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="CL1" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="CM1" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="CN1" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="CO1" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="CP1" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="CQ1" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="CR1" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="CS1" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="CT1" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="CU1" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="CV1" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="CW1" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="CX1" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="CY1" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="CZ1" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="DA1" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="DB1" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="DC1" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="DD1" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="DE1" s="2" t="n">
+        <v>45292</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -956,6 +1028,78 @@
       <c r="CG2" t="n">
         <v>3666</v>
       </c>
+      <c r="CH2" t="n">
+        <v>5638</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>6401</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>6624</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>6163</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>7371</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>6193</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>6190</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>6601</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>5497</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>7148</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>5348</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>5609</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>5264</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>6169</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>7310</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>6656</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>7186</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>7023</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>6509</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>6014</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>7252</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>6311</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>6298</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>6390</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1215,6 +1359,78 @@
       <c r="CG3" t="n">
         <v>4142</v>
       </c>
+      <c r="CH3" t="n">
+        <v>6785</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>7569</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>7785</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>6742</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>8119</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>6868</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>6647</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>7242</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>5837</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>7288</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>5615</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>6088</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>5996</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>7192</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>8146</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>7142</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>7487</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>7329</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>7295</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>6900</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>8188</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>7004</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>6916</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>7532</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1474,6 +1690,78 @@
       <c r="CG4" t="n">
         <v>31929</v>
       </c>
+      <c r="CH4" t="n">
+        <v>45212</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>52672</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>55564</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>50080</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>58280</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>48932</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>47482</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>52604</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>45135</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>56681</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>42445</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>45420</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>42860</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>49519</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>58033</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>51827</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>53907</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>51505</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>49573</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>46204</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>56032</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>48615</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>47857</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>51174</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1733,6 +2021,78 @@
       <c r="CG5" t="n">
         <v>47372</v>
       </c>
+      <c r="CH5" t="n">
+        <v>85721</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>102051</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>109008</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>98605</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>114826</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>94068</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>88091</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>97965</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>82975</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>107712</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>79560</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>84062</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>83313</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>100501</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>116798</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>108634</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>110876</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>105147</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>101765</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>95232</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>112908</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>97567</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>100246</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>101501</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1992,6 +2352,78 @@
       <c r="CG6" t="n">
         <v>2879</v>
       </c>
+      <c r="CH6" t="n">
+        <v>4372</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>4970</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>5414</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>5060</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>6330</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>5193</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>5137</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>5392</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>4342</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>5255</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>3917</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>4240</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>4378</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>4887</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>5732</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>5720</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>6064</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>5940</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>5748</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>5135</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>5714</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>4963</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>5003</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>4973</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2251,6 +2683,78 @@
       <c r="CG7" t="n">
         <v>722</v>
       </c>
+      <c r="CH7" t="n">
+        <v>1167</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>1279</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1425</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1309</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>1596</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>1205</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>1154</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1313</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>976</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1260</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>974</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>894</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1199</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1431</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>1722</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>1538</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1692</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>1538</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>1409</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>1149</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1429</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>1322</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>1259</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1233</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2510,6 +3014,78 @@
       <c r="CG8" t="n">
         <v>1185</v>
       </c>
+      <c r="CH8" t="n">
+        <v>2088</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>2466</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>2641</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>2297</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>2934</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>2429</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>2216</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>2511</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>2624</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1900</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1825</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>1924</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>2339</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>2660</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>2508</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>2598</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>2537</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>2362</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>2792</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>2465</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>2365</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>2297</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2769,6 +3345,78 @@
       <c r="CG9" t="n">
         <v>3725</v>
       </c>
+      <c r="CH9" t="n">
+        <v>11705</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>14682</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>16808</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>14586</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>17359</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>13287</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>12734</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>13997</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>10619</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>12296</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>8425</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>7702</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>12681</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>17399</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>20250</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>19382</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>19591</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>18268</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>18671</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>16156</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>19764</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>16064</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>14701</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>12488</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3028,6 +3676,78 @@
       <c r="CG10" t="n">
         <v>4173</v>
       </c>
+      <c r="CH10" t="n">
+        <v>8460</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>11068</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>12339</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>10906</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>12884</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>10094</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>10512</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>11038</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>9117</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>11428</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>7402</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>7118</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>9224</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>12409</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>15586</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>14347</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>14585</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>13662</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>13111</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>11325</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>14369</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>11629</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>10188</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>9480</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3036,256 +3756,328 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546</v>
+        <v>273</v>
       </c>
       <c r="C11" t="n">
-        <v>690</v>
+        <v>345</v>
       </c>
       <c r="D11" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="E11" t="n">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="F11" t="n">
-        <v>788</v>
+        <v>394</v>
       </c>
       <c r="G11" t="n">
-        <v>492</v>
+        <v>246</v>
       </c>
       <c r="H11" t="n">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="I11" t="n">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="J11" t="n">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="K11" t="n">
-        <v>552</v>
+        <v>276</v>
       </c>
       <c r="L11" t="n">
-        <v>424</v>
+        <v>212</v>
       </c>
       <c r="M11" t="n">
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="N11" t="n">
-        <v>944</v>
+        <v>472</v>
       </c>
       <c r="O11" t="n">
-        <v>1508</v>
+        <v>754</v>
       </c>
       <c r="P11" t="n">
-        <v>1494</v>
+        <v>747</v>
       </c>
       <c r="Q11" t="n">
-        <v>1370</v>
+        <v>685</v>
       </c>
       <c r="R11" t="n">
-        <v>990</v>
+        <v>495</v>
       </c>
       <c r="S11" t="n">
-        <v>666</v>
+        <v>333</v>
       </c>
       <c r="T11" t="n">
-        <v>690</v>
+        <v>345</v>
       </c>
       <c r="U11" t="n">
-        <v>908</v>
+        <v>454</v>
       </c>
       <c r="V11" t="n">
-        <v>694</v>
+        <v>347</v>
       </c>
       <c r="W11" t="n">
-        <v>758</v>
+        <v>379</v>
       </c>
       <c r="X11" t="n">
-        <v>572</v>
+        <v>286</v>
       </c>
       <c r="Y11" t="n">
-        <v>748</v>
+        <v>374</v>
       </c>
       <c r="Z11" t="n">
-        <v>1242</v>
+        <v>621</v>
       </c>
       <c r="AA11" t="n">
-        <v>1850</v>
+        <v>925</v>
       </c>
       <c r="AB11" t="n">
-        <v>1692</v>
+        <v>846</v>
       </c>
       <c r="AC11" t="n">
-        <v>1606</v>
+        <v>803</v>
       </c>
       <c r="AD11" t="n">
-        <v>1782</v>
+        <v>891</v>
       </c>
       <c r="AE11" t="n">
-        <v>1858</v>
+        <v>929</v>
       </c>
       <c r="AF11" t="n">
-        <v>2324</v>
+        <v>1162</v>
       </c>
       <c r="AG11" t="n">
-        <v>2140</v>
+        <v>1070</v>
       </c>
       <c r="AH11" t="n">
-        <v>2220</v>
+        <v>1110</v>
       </c>
       <c r="AI11" t="n">
-        <v>1976</v>
+        <v>988</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>1646</v>
+        <v>823</v>
       </c>
       <c r="AL11" t="n">
-        <v>1860</v>
+        <v>930</v>
       </c>
       <c r="AM11" t="n">
-        <v>2236</v>
+        <v>1118</v>
       </c>
       <c r="AN11" t="n">
-        <v>2622</v>
+        <v>1311</v>
       </c>
       <c r="AO11" t="n">
-        <v>2396</v>
+        <v>1198</v>
       </c>
       <c r="AP11" t="n">
-        <v>2458</v>
+        <v>1229</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2726</v>
+        <v>1363</v>
       </c>
       <c r="AR11" t="n">
-        <v>2552</v>
+        <v>1276</v>
       </c>
       <c r="AS11" t="n">
-        <v>2848</v>
+        <v>1424</v>
       </c>
       <c r="AT11" t="n">
-        <v>3060</v>
+        <v>1530</v>
       </c>
       <c r="AU11" t="n">
-        <v>1728</v>
+        <v>864</v>
       </c>
       <c r="AV11" t="n">
-        <v>2180</v>
+        <v>1090</v>
       </c>
       <c r="AW11" t="n">
-        <v>1704</v>
+        <v>852</v>
       </c>
       <c r="AX11" t="n">
-        <v>1746</v>
+        <v>873</v>
       </c>
       <c r="AY11" t="n">
-        <v>2332</v>
+        <v>1166</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2226</v>
+        <v>1113</v>
       </c>
       <c r="BA11" t="n">
-        <v>2426</v>
+        <v>1213</v>
       </c>
       <c r="BB11" t="n">
-        <v>2470</v>
+        <v>1235</v>
       </c>
       <c r="BC11" t="n">
-        <v>2576</v>
+        <v>1288</v>
       </c>
       <c r="BD11" t="n">
-        <v>2618</v>
+        <v>1309</v>
       </c>
       <c r="BE11" t="n">
-        <v>2104</v>
+        <v>1052</v>
       </c>
       <c r="BF11" t="n">
-        <v>2234</v>
+        <v>1117</v>
       </c>
       <c r="BG11" t="n">
-        <v>2094</v>
+        <v>1047</v>
       </c>
       <c r="BH11" t="n">
-        <v>1634</v>
+        <v>817</v>
       </c>
       <c r="BI11" t="n">
-        <v>1710</v>
+        <v>855</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3588</v>
+        <v>1794</v>
       </c>
       <c r="BK11" t="n">
-        <v>3512</v>
+        <v>1756</v>
       </c>
       <c r="BL11" t="n">
-        <v>3346</v>
+        <v>1673</v>
       </c>
       <c r="BM11" t="n">
-        <v>3658</v>
+        <v>1829</v>
       </c>
       <c r="BN11" t="n">
-        <v>3574</v>
+        <v>1787</v>
       </c>
       <c r="BO11" t="n">
-        <v>2690</v>
+        <v>1345</v>
       </c>
       <c r="BP11" t="n">
-        <v>2270</v>
+        <v>1135</v>
       </c>
       <c r="BQ11" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="BR11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="BS11" t="n">
-        <v>2026</v>
+        <v>1013</v>
       </c>
       <c r="BT11" t="n">
-        <v>1518</v>
+        <v>759</v>
       </c>
       <c r="BU11" t="n">
-        <v>1762</v>
+        <v>881</v>
       </c>
       <c r="BV11" t="n">
-        <v>3294</v>
+        <v>1647</v>
       </c>
       <c r="BW11" t="n">
-        <v>3286</v>
+        <v>1643</v>
       </c>
       <c r="BX11" t="n">
-        <v>3172</v>
+        <v>1586</v>
       </c>
       <c r="BY11" t="n">
-        <v>2648</v>
+        <v>1324</v>
       </c>
       <c r="BZ11" t="n">
-        <v>3026</v>
+        <v>1513</v>
       </c>
       <c r="CA11" t="n">
-        <v>3112</v>
+        <v>1556</v>
       </c>
       <c r="CB11" t="n">
-        <v>3296</v>
+        <v>1648</v>
       </c>
       <c r="CC11" t="n">
-        <v>3496</v>
+        <v>1748</v>
       </c>
       <c r="CD11" t="n">
-        <v>2920</v>
+        <v>1460</v>
       </c>
       <c r="CE11" t="n">
-        <v>3430</v>
+        <v>1715</v>
       </c>
       <c r="CF11" t="n">
-        <v>2944</v>
+        <v>1472</v>
       </c>
       <c r="CG11" t="n">
-        <v>2536</v>
+        <v>1268</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>2440</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>2538</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>2511</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>3047</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>2445</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>2578</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>2975</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>2376</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>3549</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>2723</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>2130</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>2520</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>2992</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>3542</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>3212</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>3354</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>3799</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>3454</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>3115</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>3445</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>2965</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>2475</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>2273</v>
       </c>
     </row>
     <row r="12">
@@ -3295,256 +4087,328 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44995</v>
+        <v>44722</v>
       </c>
       <c r="C12" t="n">
-        <v>55424</v>
+        <v>55079</v>
       </c>
       <c r="D12" t="n">
-        <v>57139</v>
+        <v>56849</v>
       </c>
       <c r="E12" t="n">
-        <v>64877</v>
+        <v>64658</v>
       </c>
       <c r="F12" t="n">
-        <v>72798</v>
+        <v>72404</v>
       </c>
       <c r="G12" t="n">
-        <v>62433</v>
+        <v>62187</v>
       </c>
       <c r="H12" t="n">
-        <v>63988</v>
+        <v>63802</v>
       </c>
       <c r="I12" t="n">
-        <v>55339</v>
+        <v>55141</v>
       </c>
       <c r="J12" t="n">
-        <v>52843</v>
+        <v>52677</v>
       </c>
       <c r="K12" t="n">
-        <v>62348</v>
+        <v>62072</v>
       </c>
       <c r="L12" t="n">
-        <v>52120</v>
+        <v>51908</v>
       </c>
       <c r="M12" t="n">
-        <v>38365</v>
+        <v>38152</v>
       </c>
       <c r="N12" t="n">
-        <v>76133</v>
+        <v>75661</v>
       </c>
       <c r="O12" t="n">
-        <v>94694</v>
+        <v>93940</v>
       </c>
       <c r="P12" t="n">
-        <v>97317</v>
+        <v>96570</v>
       </c>
       <c r="Q12" t="n">
-        <v>86241</v>
+        <v>85556</v>
       </c>
       <c r="R12" t="n">
-        <v>78829</v>
+        <v>78334</v>
       </c>
       <c r="S12" t="n">
-        <v>66404</v>
+        <v>66071</v>
       </c>
       <c r="T12" t="n">
-        <v>64506</v>
+        <v>64161</v>
       </c>
       <c r="U12" t="n">
-        <v>69896</v>
+        <v>69442</v>
       </c>
       <c r="V12" t="n">
-        <v>64819</v>
+        <v>64472</v>
       </c>
       <c r="W12" t="n">
-        <v>68287</v>
+        <v>67908</v>
       </c>
       <c r="X12" t="n">
-        <v>51340</v>
+        <v>51054</v>
       </c>
       <c r="Y12" t="n">
-        <v>53162</v>
+        <v>52788</v>
       </c>
       <c r="Z12" t="n">
-        <v>69953</v>
+        <v>69332</v>
       </c>
       <c r="AA12" t="n">
-        <v>93118</v>
+        <v>92193</v>
       </c>
       <c r="AB12" t="n">
-        <v>110130</v>
+        <v>109284</v>
       </c>
       <c r="AC12" t="n">
-        <v>91803</v>
+        <v>91000</v>
       </c>
       <c r="AD12" t="n">
-        <v>103456</v>
+        <v>102565</v>
       </c>
       <c r="AE12" t="n">
-        <v>95005</v>
+        <v>94076</v>
       </c>
       <c r="AF12" t="n">
-        <v>89899</v>
+        <v>88737</v>
       </c>
       <c r="AG12" t="n">
-        <v>95546</v>
+        <v>94476</v>
       </c>
       <c r="AH12" t="n">
-        <v>98836</v>
+        <v>97726</v>
       </c>
       <c r="AI12" t="n">
-        <v>94051</v>
+        <v>93063</v>
       </c>
       <c r="AJ12" t="n">
-        <v>83172</v>
+        <v>82272</v>
       </c>
       <c r="AK12" t="n">
-        <v>85577</v>
+        <v>84754</v>
       </c>
       <c r="AL12" t="n">
-        <v>83821</v>
+        <v>82891</v>
       </c>
       <c r="AM12" t="n">
-        <v>105004</v>
+        <v>103886</v>
       </c>
       <c r="AN12" t="n">
-        <v>117513</v>
+        <v>116202</v>
       </c>
       <c r="AO12" t="n">
-        <v>108069</v>
+        <v>106871</v>
       </c>
       <c r="AP12" t="n">
-        <v>124491</v>
+        <v>123262</v>
       </c>
       <c r="AQ12" t="n">
-        <v>118905</v>
+        <v>117542</v>
       </c>
       <c r="AR12" t="n">
-        <v>100064</v>
+        <v>98788</v>
       </c>
       <c r="AS12" t="n">
-        <v>118743</v>
+        <v>117319</v>
       </c>
       <c r="AT12" t="n">
-        <v>114967</v>
+        <v>113437</v>
       </c>
       <c r="AU12" t="n">
-        <v>89755</v>
+        <v>88891</v>
       </c>
       <c r="AV12" t="n">
-        <v>91150</v>
+        <v>90060</v>
       </c>
       <c r="AW12" t="n">
-        <v>83654</v>
+        <v>82802</v>
       </c>
       <c r="AX12" t="n">
-        <v>95903</v>
+        <v>95030</v>
       </c>
       <c r="AY12" t="n">
-        <v>114265</v>
+        <v>113099</v>
       </c>
       <c r="AZ12" t="n">
-        <v>116998</v>
+        <v>115885</v>
       </c>
       <c r="BA12" t="n">
-        <v>123926</v>
+        <v>122713</v>
       </c>
       <c r="BB12" t="n">
-        <v>102551</v>
+        <v>101316</v>
       </c>
       <c r="BC12" t="n">
-        <v>103779</v>
+        <v>102491</v>
       </c>
       <c r="BD12" t="n">
-        <v>97989</v>
+        <v>96680</v>
       </c>
       <c r="BE12" t="n">
-        <v>86178</v>
+        <v>85126</v>
       </c>
       <c r="BF12" t="n">
-        <v>73513</v>
+        <v>72396</v>
       </c>
       <c r="BG12" t="n">
-        <v>93453</v>
+        <v>92406</v>
       </c>
       <c r="BH12" t="n">
-        <v>93193</v>
+        <v>92376</v>
       </c>
       <c r="BI12" t="n">
-        <v>98840</v>
+        <v>97985</v>
       </c>
       <c r="BJ12" t="n">
-        <v>124291</v>
+        <v>122497</v>
       </c>
       <c r="BK12" t="n">
-        <v>137459</v>
+        <v>135703</v>
       </c>
       <c r="BL12" t="n">
-        <v>134817</v>
+        <v>133144</v>
       </c>
       <c r="BM12" t="n">
-        <v>143129</v>
+        <v>141300</v>
       </c>
       <c r="BN12" t="n">
-        <v>147287</v>
+        <v>145500</v>
       </c>
       <c r="BO12" t="n">
-        <v>130374</v>
+        <v>129029</v>
       </c>
       <c r="BP12" t="n">
-        <v>118608</v>
+        <v>117473</v>
       </c>
       <c r="BQ12" t="n">
-        <v>113554</v>
+        <v>112154</v>
       </c>
       <c r="BR12" t="n">
-        <v>115182</v>
+        <v>114182</v>
       </c>
       <c r="BS12" t="n">
-        <v>119312</v>
+        <v>118299</v>
       </c>
       <c r="BT12" t="n">
-        <v>103453</v>
+        <v>102694</v>
       </c>
       <c r="BU12" t="n">
-        <v>100180</v>
+        <v>99299</v>
       </c>
       <c r="BV12" t="n">
-        <v>141416</v>
+        <v>139769</v>
       </c>
       <c r="BW12" t="n">
-        <v>162402</v>
+        <v>160759</v>
       </c>
       <c r="BX12" t="n">
-        <v>166991</v>
+        <v>165405</v>
       </c>
       <c r="BY12" t="n">
-        <v>170249</v>
+        <v>168925</v>
       </c>
       <c r="BZ12" t="n">
-        <v>179348</v>
+        <v>177835</v>
       </c>
       <c r="CA12" t="n">
-        <v>148715</v>
+        <v>147159</v>
       </c>
       <c r="CB12" t="n">
-        <v>141941</v>
+        <v>140293</v>
       </c>
       <c r="CC12" t="n">
-        <v>148577</v>
+        <v>146829</v>
       </c>
       <c r="CD12" t="n">
-        <v>130286</v>
+        <v>128826</v>
       </c>
       <c r="CE12" t="n">
-        <v>154841</v>
+        <v>153126</v>
       </c>
       <c r="CF12" t="n">
-        <v>114212</v>
+        <v>112740</v>
       </c>
       <c r="CG12" t="n">
-        <v>102329</v>
+        <v>101061</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>173491</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>205598</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>220146</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>198259</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>232746</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>190714</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>182741</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>201638</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>168862</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>215241</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>158309</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>165088</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>169359</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>204838</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>239779</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>220966</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>227340</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>216748</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>209897</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>193280</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>231893</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>198905</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>197308</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>199341</v>
       </c>
     </row>
   </sheetData>

--- a/sisab_scrap_download/sul/cid_f/joined_files/joined_sul.xlsx
+++ b/sisab_scrap_download/sul/cid_f/joined_files/joined_sul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE12"/>
+  <dimension ref="A1:CS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,42 +733,6 @@
       <c r="CS1" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="CT1" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="CU1" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="CV1" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="CW1" s="2" t="n">
-        <v>45536</v>
-      </c>
-      <c r="CX1" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="CY1" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="CZ1" s="2" t="n">
-        <v>45444</v>
-      </c>
-      <c r="DA1" s="2" t="n">
-        <v>45413</v>
-      </c>
-      <c r="DB1" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="DC1" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="DD1" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="DE1" s="2" t="n">
-        <v>45292</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,3351 +1028,3250 @@
       <c r="CS2" t="n">
         <v>5609</v>
       </c>
-      <c r="CT2" t="n">
-        <v>5264</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>6169</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>7310</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>6656</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>7186</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>7023</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>6509</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>6014</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>7252</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>6311</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>6298</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>6390</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
+          <t>F10-F19 - Transtornos mentais e comportamentais devidos ao uso de substância psicoativa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2812</v>
+        <v>1210</v>
       </c>
       <c r="C3" t="n">
-        <v>3247</v>
+        <v>1743</v>
       </c>
       <c r="D3" t="n">
-        <v>3114</v>
+        <v>1369</v>
       </c>
       <c r="E3" t="n">
-        <v>3843</v>
+        <v>1539</v>
       </c>
       <c r="F3" t="n">
-        <v>4000</v>
+        <v>1718</v>
       </c>
       <c r="G3" t="n">
-        <v>3874</v>
+        <v>1736</v>
       </c>
       <c r="H3" t="n">
-        <v>3565</v>
+        <v>1623</v>
       </c>
       <c r="I3" t="n">
-        <v>3266</v>
+        <v>1375</v>
       </c>
       <c r="J3" t="n">
-        <v>2845</v>
+        <v>1449</v>
       </c>
       <c r="K3" t="n">
-        <v>3586</v>
+        <v>1965</v>
       </c>
       <c r="L3" t="n">
-        <v>2983</v>
+        <v>1806</v>
       </c>
       <c r="M3" t="n">
-        <v>2434</v>
+        <v>1361</v>
       </c>
       <c r="N3" t="n">
-        <v>4027</v>
+        <v>1550</v>
       </c>
       <c r="O3" t="n">
-        <v>5233</v>
+        <v>2238</v>
       </c>
       <c r="P3" t="n">
-        <v>5192</v>
+        <v>2337</v>
       </c>
       <c r="Q3" t="n">
-        <v>4591</v>
+        <v>2186</v>
       </c>
       <c r="R3" t="n">
-        <v>4494</v>
+        <v>2037</v>
       </c>
       <c r="S3" t="n">
-        <v>4001</v>
+        <v>1677</v>
       </c>
       <c r="T3" t="n">
-        <v>3809</v>
+        <v>1705</v>
       </c>
       <c r="U3" t="n">
-        <v>4092</v>
+        <v>1703</v>
       </c>
       <c r="V3" t="n">
-        <v>3683</v>
+        <v>1449</v>
       </c>
       <c r="W3" t="n">
-        <v>4017</v>
+        <v>1661</v>
       </c>
       <c r="X3" t="n">
-        <v>3103</v>
+        <v>1299</v>
       </c>
       <c r="Y3" t="n">
-        <v>3282</v>
+        <v>1364</v>
       </c>
       <c r="Z3" t="n">
-        <v>3613</v>
+        <v>1579</v>
       </c>
       <c r="AA3" t="n">
-        <v>4664</v>
+        <v>1893</v>
       </c>
       <c r="AB3" t="n">
-        <v>5728</v>
+        <v>2382</v>
       </c>
       <c r="AC3" t="n">
-        <v>4711</v>
+        <v>1901</v>
       </c>
       <c r="AD3" t="n">
-        <v>5706</v>
+        <v>2054</v>
       </c>
       <c r="AE3" t="n">
-        <v>5147</v>
+        <v>1993</v>
       </c>
       <c r="AF3" t="n">
-        <v>4667</v>
+        <v>1789</v>
       </c>
       <c r="AG3" t="n">
-        <v>4929</v>
+        <v>1867</v>
       </c>
       <c r="AH3" t="n">
-        <v>4834</v>
+        <v>2029</v>
       </c>
       <c r="AI3" t="n">
-        <v>4841</v>
+        <v>2010</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4366</v>
+        <v>1725</v>
       </c>
       <c r="AK3" t="n">
-        <v>4696</v>
+        <v>1847</v>
       </c>
       <c r="AL3" t="n">
-        <v>3896</v>
+        <v>1590</v>
       </c>
       <c r="AM3" t="n">
-        <v>4584</v>
+        <v>2017</v>
       </c>
       <c r="AN3" t="n">
-        <v>4913</v>
+        <v>2394</v>
       </c>
       <c r="AO3" t="n">
-        <v>4646</v>
+        <v>2303</v>
       </c>
       <c r="AP3" t="n">
-        <v>5711</v>
+        <v>2481</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6015</v>
+        <v>2585</v>
       </c>
       <c r="AR3" t="n">
-        <v>4977</v>
+        <v>2065</v>
       </c>
       <c r="AS3" t="n">
-        <v>5517</v>
+        <v>2312</v>
       </c>
       <c r="AT3" t="n">
-        <v>5446</v>
+        <v>2554</v>
       </c>
       <c r="AU3" t="n">
-        <v>4388</v>
+        <v>1785</v>
       </c>
       <c r="AV3" t="n">
-        <v>4511</v>
+        <v>1917</v>
       </c>
       <c r="AW3" t="n">
-        <v>4480</v>
+        <v>1947</v>
       </c>
       <c r="AX3" t="n">
-        <v>3552</v>
+        <v>2295</v>
       </c>
       <c r="AY3" t="n">
-        <v>4313</v>
+        <v>2734</v>
       </c>
       <c r="AZ3" t="n">
-        <v>4699</v>
+        <v>2727</v>
       </c>
       <c r="BA3" t="n">
-        <v>4994</v>
+        <v>2987</v>
       </c>
       <c r="BB3" t="n">
-        <v>4176</v>
+        <v>2458</v>
       </c>
       <c r="BC3" t="n">
-        <v>4175</v>
+        <v>2549</v>
       </c>
       <c r="BD3" t="n">
-        <v>3836</v>
+        <v>2477</v>
       </c>
       <c r="BE3" t="n">
-        <v>3661</v>
+        <v>2031</v>
       </c>
       <c r="BF3" t="n">
-        <v>3115</v>
+        <v>1486</v>
       </c>
       <c r="BG3" t="n">
-        <v>4461</v>
+        <v>1956</v>
       </c>
       <c r="BH3" t="n">
-        <v>4504</v>
+        <v>1911</v>
       </c>
       <c r="BI3" t="n">
-        <v>4744</v>
+        <v>2122</v>
       </c>
       <c r="BJ3" t="n">
-        <v>4884</v>
+        <v>2735</v>
       </c>
       <c r="BK3" t="n">
-        <v>5080</v>
+        <v>3146</v>
       </c>
       <c r="BL3" t="n">
-        <v>4442</v>
+        <v>3023</v>
       </c>
       <c r="BM3" t="n">
-        <v>4830</v>
+        <v>3225</v>
       </c>
       <c r="BN3" t="n">
-        <v>4956</v>
+        <v>3280</v>
       </c>
       <c r="BO3" t="n">
-        <v>4488</v>
+        <v>3003</v>
       </c>
       <c r="BP3" t="n">
-        <v>4115</v>
+        <v>2459</v>
       </c>
       <c r="BQ3" t="n">
-        <v>4008</v>
+        <v>2550</v>
       </c>
       <c r="BR3" t="n">
-        <v>4077</v>
+        <v>2550</v>
       </c>
       <c r="BS3" t="n">
-        <v>4441</v>
+        <v>2621</v>
       </c>
       <c r="BT3" t="n">
-        <v>4042</v>
+        <v>2503</v>
       </c>
       <c r="BU3" t="n">
-        <v>3919</v>
+        <v>2460</v>
       </c>
       <c r="BV3" t="n">
-        <v>5640</v>
+        <v>3446</v>
       </c>
       <c r="BW3" t="n">
-        <v>5960</v>
+        <v>3745</v>
       </c>
       <c r="BX3" t="n">
-        <v>5772</v>
+        <v>4021</v>
       </c>
       <c r="BY3" t="n">
-        <v>6147</v>
+        <v>3882</v>
       </c>
       <c r="BZ3" t="n">
-        <v>5993</v>
+        <v>4002</v>
       </c>
       <c r="CA3" t="n">
-        <v>5314</v>
+        <v>3502</v>
       </c>
       <c r="CB3" t="n">
-        <v>5355</v>
+        <v>3413</v>
       </c>
       <c r="CC3" t="n">
-        <v>5312</v>
+        <v>3478</v>
       </c>
       <c r="CD3" t="n">
-        <v>4601</v>
+        <v>2840</v>
       </c>
       <c r="CE3" t="n">
-        <v>5519</v>
+        <v>3470</v>
       </c>
       <c r="CF3" t="n">
-        <v>4171</v>
+        <v>2751</v>
       </c>
       <c r="CG3" t="n">
-        <v>4142</v>
+        <v>2491</v>
       </c>
       <c r="CH3" t="n">
-        <v>6785</v>
+        <v>4579</v>
       </c>
       <c r="CI3" t="n">
-        <v>7569</v>
+        <v>5054</v>
       </c>
       <c r="CJ3" t="n">
-        <v>7785</v>
+        <v>5316</v>
       </c>
       <c r="CK3" t="n">
-        <v>6742</v>
+        <v>4814</v>
       </c>
       <c r="CL3" t="n">
-        <v>8119</v>
+        <v>5692</v>
       </c>
       <c r="CM3" t="n">
-        <v>6868</v>
+        <v>4751</v>
       </c>
       <c r="CN3" t="n">
-        <v>6647</v>
+        <v>4392</v>
       </c>
       <c r="CO3" t="n">
-        <v>7242</v>
+        <v>4839</v>
       </c>
       <c r="CP3" t="n">
-        <v>5837</v>
+        <v>3847</v>
       </c>
       <c r="CQ3" t="n">
-        <v>7288</v>
+        <v>5125</v>
       </c>
       <c r="CR3" t="n">
-        <v>5615</v>
+        <v>3908</v>
       </c>
       <c r="CS3" t="n">
-        <v>6088</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>5996</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>7192</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>8146</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>7142</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>7487</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>7329</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>7295</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>6900</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>8188</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>7004</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>6916</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>7532</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F30-F39 - Transtornos do humor [afetivos]</t>
+          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19806</v>
+        <v>2812</v>
       </c>
       <c r="C4" t="n">
-        <v>24804</v>
+        <v>3247</v>
       </c>
       <c r="D4" t="n">
-        <v>25496</v>
+        <v>3114</v>
       </c>
       <c r="E4" t="n">
-        <v>29652</v>
+        <v>3843</v>
       </c>
       <c r="F4" t="n">
-        <v>33492</v>
+        <v>4000</v>
       </c>
       <c r="G4" t="n">
-        <v>28664</v>
+        <v>3874</v>
       </c>
       <c r="H4" t="n">
-        <v>30242</v>
+        <v>3565</v>
       </c>
       <c r="I4" t="n">
-        <v>25782</v>
+        <v>3266</v>
       </c>
       <c r="J4" t="n">
-        <v>24790</v>
+        <v>2845</v>
       </c>
       <c r="K4" t="n">
-        <v>27953</v>
+        <v>3586</v>
       </c>
       <c r="L4" t="n">
-        <v>23527</v>
+        <v>2983</v>
       </c>
       <c r="M4" t="n">
-        <v>17674</v>
+        <v>2434</v>
       </c>
       <c r="N4" t="n">
-        <v>31104</v>
+        <v>4027</v>
       </c>
       <c r="O4" t="n">
-        <v>37821</v>
+        <v>5233</v>
       </c>
       <c r="P4" t="n">
-        <v>38507</v>
+        <v>5192</v>
       </c>
       <c r="Q4" t="n">
-        <v>34457</v>
+        <v>4591</v>
       </c>
       <c r="R4" t="n">
-        <v>32289</v>
+        <v>4494</v>
       </c>
       <c r="S4" t="n">
-        <v>27860</v>
+        <v>4001</v>
       </c>
       <c r="T4" t="n">
-        <v>26714</v>
+        <v>3809</v>
       </c>
       <c r="U4" t="n">
-        <v>30207</v>
+        <v>4092</v>
       </c>
       <c r="V4" t="n">
-        <v>27695</v>
+        <v>3683</v>
       </c>
       <c r="W4" t="n">
-        <v>29175</v>
+        <v>4017</v>
       </c>
       <c r="X4" t="n">
-        <v>22192</v>
+        <v>3103</v>
       </c>
       <c r="Y4" t="n">
-        <v>22751</v>
+        <v>3282</v>
       </c>
       <c r="Z4" t="n">
-        <v>27768</v>
+        <v>3613</v>
       </c>
       <c r="AA4" t="n">
-        <v>35900</v>
+        <v>4664</v>
       </c>
       <c r="AB4" t="n">
-        <v>41755</v>
+        <v>5728</v>
       </c>
       <c r="AC4" t="n">
-        <v>34993</v>
+        <v>4711</v>
       </c>
       <c r="AD4" t="n">
-        <v>38651</v>
+        <v>5706</v>
       </c>
       <c r="AE4" t="n">
-        <v>37332</v>
+        <v>5147</v>
       </c>
       <c r="AF4" t="n">
-        <v>35144</v>
+        <v>4667</v>
       </c>
       <c r="AG4" t="n">
-        <v>36944</v>
+        <v>4929</v>
       </c>
       <c r="AH4" t="n">
-        <v>37727</v>
+        <v>4834</v>
       </c>
       <c r="AI4" t="n">
-        <v>36828</v>
+        <v>4841</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32858</v>
+        <v>4366</v>
       </c>
       <c r="AK4" t="n">
-        <v>33844</v>
+        <v>4696</v>
       </c>
       <c r="AL4" t="n">
-        <v>31833</v>
+        <v>3896</v>
       </c>
       <c r="AM4" t="n">
-        <v>37925</v>
+        <v>4584</v>
       </c>
       <c r="AN4" t="n">
-        <v>43335</v>
+        <v>4913</v>
       </c>
       <c r="AO4" t="n">
-        <v>40104</v>
+        <v>4646</v>
       </c>
       <c r="AP4" t="n">
-        <v>45338</v>
+        <v>5711</v>
       </c>
       <c r="AQ4" t="n">
-        <v>42691</v>
+        <v>6015</v>
       </c>
       <c r="AR4" t="n">
-        <v>35702</v>
+        <v>4977</v>
       </c>
       <c r="AS4" t="n">
-        <v>43236</v>
+        <v>5517</v>
       </c>
       <c r="AT4" t="n">
-        <v>41575</v>
+        <v>5446</v>
       </c>
       <c r="AU4" t="n">
-        <v>33228</v>
+        <v>4388</v>
       </c>
       <c r="AV4" t="n">
-        <v>34076</v>
+        <v>4511</v>
       </c>
       <c r="AW4" t="n">
-        <v>31601</v>
+        <v>4480</v>
       </c>
       <c r="AX4" t="n">
-        <v>33744</v>
+        <v>3552</v>
       </c>
       <c r="AY4" t="n">
-        <v>38830</v>
+        <v>4313</v>
       </c>
       <c r="AZ4" t="n">
-        <v>39925</v>
+        <v>4699</v>
       </c>
       <c r="BA4" t="n">
-        <v>41686</v>
+        <v>4994</v>
       </c>
       <c r="BB4" t="n">
-        <v>35243</v>
+        <v>4176</v>
       </c>
       <c r="BC4" t="n">
-        <v>36094</v>
+        <v>4175</v>
       </c>
       <c r="BD4" t="n">
-        <v>33940</v>
+        <v>3836</v>
       </c>
       <c r="BE4" t="n">
-        <v>31803</v>
+        <v>3661</v>
       </c>
       <c r="BF4" t="n">
-        <v>28324</v>
+        <v>3115</v>
       </c>
       <c r="BG4" t="n">
-        <v>34527</v>
+        <v>4461</v>
       </c>
       <c r="BH4" t="n">
-        <v>33318</v>
+        <v>4504</v>
       </c>
       <c r="BI4" t="n">
-        <v>36304</v>
+        <v>4744</v>
       </c>
       <c r="BJ4" t="n">
-        <v>39296</v>
+        <v>4884</v>
       </c>
       <c r="BK4" t="n">
-        <v>41449</v>
+        <v>5080</v>
       </c>
       <c r="BL4" t="n">
-        <v>41537</v>
+        <v>4442</v>
       </c>
       <c r="BM4" t="n">
-        <v>43057</v>
+        <v>4830</v>
       </c>
       <c r="BN4" t="n">
-        <v>44413</v>
+        <v>4956</v>
       </c>
       <c r="BO4" t="n">
-        <v>39886</v>
+        <v>4488</v>
       </c>
       <c r="BP4" t="n">
-        <v>36220</v>
+        <v>4115</v>
       </c>
       <c r="BQ4" t="n">
-        <v>34155</v>
+        <v>4008</v>
       </c>
       <c r="BR4" t="n">
-        <v>35727</v>
+        <v>4077</v>
       </c>
       <c r="BS4" t="n">
-        <v>38790</v>
+        <v>4441</v>
       </c>
       <c r="BT4" t="n">
-        <v>33957</v>
+        <v>4042</v>
       </c>
       <c r="BU4" t="n">
-        <v>34187</v>
+        <v>3919</v>
       </c>
       <c r="BV4" t="n">
-        <v>40874</v>
+        <v>5640</v>
       </c>
       <c r="BW4" t="n">
-        <v>46494</v>
+        <v>5960</v>
       </c>
       <c r="BX4" t="n">
-        <v>46003</v>
+        <v>5772</v>
       </c>
       <c r="BY4" t="n">
-        <v>47722</v>
+        <v>6147</v>
       </c>
       <c r="BZ4" t="n">
-        <v>50232</v>
+        <v>5993</v>
       </c>
       <c r="CA4" t="n">
-        <v>42527</v>
+        <v>5314</v>
       </c>
       <c r="CB4" t="n">
-        <v>41147</v>
+        <v>5355</v>
       </c>
       <c r="CC4" t="n">
-        <v>43205</v>
+        <v>5312</v>
       </c>
       <c r="CD4" t="n">
-        <v>38104</v>
+        <v>4601</v>
       </c>
       <c r="CE4" t="n">
-        <v>45502</v>
+        <v>5519</v>
       </c>
       <c r="CF4" t="n">
-        <v>33687</v>
+        <v>4171</v>
       </c>
       <c r="CG4" t="n">
-        <v>31929</v>
+        <v>4142</v>
       </c>
       <c r="CH4" t="n">
-        <v>45212</v>
+        <v>6785</v>
       </c>
       <c r="CI4" t="n">
-        <v>52672</v>
+        <v>7569</v>
       </c>
       <c r="CJ4" t="n">
-        <v>55564</v>
+        <v>7785</v>
       </c>
       <c r="CK4" t="n">
-        <v>50080</v>
+        <v>6742</v>
       </c>
       <c r="CL4" t="n">
-        <v>58280</v>
+        <v>8119</v>
       </c>
       <c r="CM4" t="n">
-        <v>48932</v>
+        <v>6868</v>
       </c>
       <c r="CN4" t="n">
-        <v>47482</v>
+        <v>6647</v>
       </c>
       <c r="CO4" t="n">
-        <v>52604</v>
+        <v>7242</v>
       </c>
       <c r="CP4" t="n">
-        <v>45135</v>
+        <v>5837</v>
       </c>
       <c r="CQ4" t="n">
-        <v>56681</v>
+        <v>7288</v>
       </c>
       <c r="CR4" t="n">
-        <v>42445</v>
+        <v>5615</v>
       </c>
       <c r="CS4" t="n">
-        <v>45420</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>42860</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>49519</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>58033</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>51827</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>53907</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>51505</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>49573</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>46204</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>56032</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>48615</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>47857</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>51174</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
+          <t>F30-F39 - Transtornos do humor [afetivos]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14143</v>
+        <v>19806</v>
       </c>
       <c r="C5" t="n">
-        <v>17086</v>
+        <v>24804</v>
       </c>
       <c r="D5" t="n">
-        <v>17932</v>
+        <v>25496</v>
       </c>
       <c r="E5" t="n">
-        <v>19499</v>
+        <v>29652</v>
       </c>
       <c r="F5" t="n">
-        <v>21777</v>
+        <v>33492</v>
       </c>
       <c r="G5" t="n">
-        <v>18574</v>
+        <v>28664</v>
       </c>
       <c r="H5" t="n">
-        <v>18380</v>
+        <v>30242</v>
       </c>
       <c r="I5" t="n">
-        <v>16030</v>
+        <v>25782</v>
       </c>
       <c r="J5" t="n">
-        <v>15898</v>
+        <v>24790</v>
       </c>
       <c r="K5" t="n">
-        <v>19220</v>
+        <v>27953</v>
       </c>
       <c r="L5" t="n">
-        <v>16555</v>
+        <v>23527</v>
       </c>
       <c r="M5" t="n">
-        <v>11540</v>
+        <v>17674</v>
       </c>
       <c r="N5" t="n">
-        <v>27403</v>
+        <v>31104</v>
       </c>
       <c r="O5" t="n">
-        <v>33996</v>
+        <v>37821</v>
       </c>
       <c r="P5" t="n">
-        <v>35233</v>
+        <v>38507</v>
       </c>
       <c r="Q5" t="n">
-        <v>30846</v>
+        <v>34457</v>
       </c>
       <c r="R5" t="n">
-        <v>26726</v>
+        <v>32289</v>
       </c>
       <c r="S5" t="n">
-        <v>21958</v>
+        <v>27860</v>
       </c>
       <c r="T5" t="n">
-        <v>21518</v>
+        <v>26714</v>
       </c>
       <c r="U5" t="n">
-        <v>22402</v>
+        <v>30207</v>
       </c>
       <c r="V5" t="n">
-        <v>21578</v>
+        <v>27695</v>
       </c>
       <c r="W5" t="n">
-        <v>22799</v>
+        <v>29175</v>
       </c>
       <c r="X5" t="n">
-        <v>17212</v>
+        <v>22192</v>
       </c>
       <c r="Y5" t="n">
-        <v>17408</v>
+        <v>22751</v>
       </c>
       <c r="Z5" t="n">
-        <v>25614</v>
+        <v>27768</v>
       </c>
       <c r="AA5" t="n">
-        <v>34753</v>
+        <v>35900</v>
       </c>
       <c r="AB5" t="n">
-        <v>41429</v>
+        <v>41755</v>
       </c>
       <c r="AC5" t="n">
-        <v>34342</v>
+        <v>34993</v>
       </c>
       <c r="AD5" t="n">
-        <v>38183</v>
+        <v>38651</v>
       </c>
       <c r="AE5" t="n">
-        <v>34027</v>
+        <v>37332</v>
       </c>
       <c r="AF5" t="n">
-        <v>31486</v>
+        <v>35144</v>
       </c>
       <c r="AG5" t="n">
-        <v>33955</v>
+        <v>36944</v>
       </c>
       <c r="AH5" t="n">
-        <v>36305</v>
+        <v>37727</v>
       </c>
       <c r="AI5" t="n">
-        <v>33734</v>
+        <v>36828</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30366</v>
+        <v>32858</v>
       </c>
       <c r="AK5" t="n">
-        <v>31413</v>
+        <v>33844</v>
       </c>
       <c r="AL5" t="n">
-        <v>32524</v>
+        <v>31833</v>
       </c>
       <c r="AM5" t="n">
-        <v>42308</v>
+        <v>37925</v>
       </c>
       <c r="AN5" t="n">
-        <v>46526</v>
+        <v>43335</v>
       </c>
       <c r="AO5" t="n">
-        <v>42159</v>
+        <v>40104</v>
       </c>
       <c r="AP5" t="n">
-        <v>48098</v>
+        <v>45338</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45389</v>
+        <v>42691</v>
       </c>
       <c r="AR5" t="n">
-        <v>37849</v>
+        <v>35702</v>
       </c>
       <c r="AS5" t="n">
-        <v>45006</v>
+        <v>43236</v>
       </c>
       <c r="AT5" t="n">
-        <v>43942</v>
+        <v>41575</v>
       </c>
       <c r="AU5" t="n">
-        <v>34571</v>
+        <v>33228</v>
       </c>
       <c r="AV5" t="n">
-        <v>35032</v>
+        <v>34076</v>
       </c>
       <c r="AW5" t="n">
-        <v>32134</v>
+        <v>31601</v>
       </c>
       <c r="AX5" t="n">
-        <v>42139</v>
+        <v>33744</v>
       </c>
       <c r="AY5" t="n">
-        <v>50603</v>
+        <v>38830</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51398</v>
+        <v>39925</v>
       </c>
       <c r="BA5" t="n">
-        <v>54793</v>
+        <v>41686</v>
       </c>
       <c r="BB5" t="n">
-        <v>44434</v>
+        <v>35243</v>
       </c>
       <c r="BC5" t="n">
-        <v>44880</v>
+        <v>36094</v>
       </c>
       <c r="BD5" t="n">
-        <v>42575</v>
+        <v>33940</v>
       </c>
       <c r="BE5" t="n">
-        <v>36151</v>
+        <v>31803</v>
       </c>
       <c r="BF5" t="n">
-        <v>29909</v>
+        <v>28324</v>
       </c>
       <c r="BG5" t="n">
-        <v>37210</v>
+        <v>34527</v>
       </c>
       <c r="BH5" t="n">
-        <v>37943</v>
+        <v>33318</v>
       </c>
       <c r="BI5" t="n">
-        <v>40051</v>
+        <v>36304</v>
       </c>
       <c r="BJ5" t="n">
-        <v>55383</v>
+        <v>39296</v>
       </c>
       <c r="BK5" t="n">
-        <v>63292</v>
+        <v>41449</v>
       </c>
       <c r="BL5" t="n">
-        <v>62021</v>
+        <v>41537</v>
       </c>
       <c r="BM5" t="n">
-        <v>67412</v>
+        <v>43057</v>
       </c>
       <c r="BN5" t="n">
-        <v>68828</v>
+        <v>44413</v>
       </c>
       <c r="BO5" t="n">
-        <v>60694</v>
+        <v>39886</v>
       </c>
       <c r="BP5" t="n">
-        <v>55042</v>
+        <v>36220</v>
       </c>
       <c r="BQ5" t="n">
-        <v>53036</v>
+        <v>34155</v>
       </c>
       <c r="BR5" t="n">
-        <v>54607</v>
+        <v>35727</v>
       </c>
       <c r="BS5" t="n">
-        <v>55375</v>
+        <v>38790</v>
       </c>
       <c r="BT5" t="n">
-        <v>46607</v>
+        <v>33957</v>
       </c>
       <c r="BU5" t="n">
-        <v>44494</v>
+        <v>34187</v>
       </c>
       <c r="BV5" t="n">
-        <v>67802</v>
+        <v>40874</v>
       </c>
       <c r="BW5" t="n">
-        <v>78209</v>
+        <v>46494</v>
       </c>
       <c r="BX5" t="n">
-        <v>82033</v>
+        <v>46003</v>
       </c>
       <c r="BY5" t="n">
-        <v>82386</v>
+        <v>47722</v>
       </c>
       <c r="BZ5" t="n">
-        <v>85862</v>
+        <v>50232</v>
       </c>
       <c r="CA5" t="n">
-        <v>70595</v>
+        <v>42527</v>
       </c>
       <c r="CB5" t="n">
-        <v>64689</v>
+        <v>41147</v>
       </c>
       <c r="CC5" t="n">
-        <v>68542</v>
+        <v>43205</v>
       </c>
       <c r="CD5" t="n">
-        <v>61241</v>
+        <v>38104</v>
       </c>
       <c r="CE5" t="n">
-        <v>72608</v>
+        <v>45502</v>
       </c>
       <c r="CF5" t="n">
-        <v>53226</v>
+        <v>33687</v>
       </c>
       <c r="CG5" t="n">
-        <v>47372</v>
+        <v>31929</v>
       </c>
       <c r="CH5" t="n">
-        <v>85721</v>
+        <v>45212</v>
       </c>
       <c r="CI5" t="n">
-        <v>102051</v>
+        <v>52672</v>
       </c>
       <c r="CJ5" t="n">
-        <v>109008</v>
+        <v>55564</v>
       </c>
       <c r="CK5" t="n">
-        <v>98605</v>
+        <v>50080</v>
       </c>
       <c r="CL5" t="n">
-        <v>114826</v>
+        <v>58280</v>
       </c>
       <c r="CM5" t="n">
-        <v>94068</v>
+        <v>48932</v>
       </c>
       <c r="CN5" t="n">
-        <v>88091</v>
+        <v>47482</v>
       </c>
       <c r="CO5" t="n">
-        <v>97965</v>
+        <v>52604</v>
       </c>
       <c r="CP5" t="n">
-        <v>82975</v>
+        <v>45135</v>
       </c>
       <c r="CQ5" t="n">
-        <v>107712</v>
+        <v>56681</v>
       </c>
       <c r="CR5" t="n">
-        <v>79560</v>
+        <v>42445</v>
       </c>
       <c r="CS5" t="n">
-        <v>84062</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>83313</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>100501</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>116798</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>108634</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>110876</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>105147</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>101765</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>95232</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>112908</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>97567</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>100246</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>101501</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
+          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1538</v>
+        <v>14143</v>
       </c>
       <c r="C6" t="n">
-        <v>1801</v>
+        <v>17086</v>
       </c>
       <c r="D6" t="n">
-        <v>1714</v>
+        <v>17932</v>
       </c>
       <c r="E6" t="n">
-        <v>1959</v>
+        <v>19499</v>
       </c>
       <c r="F6" t="n">
-        <v>2168</v>
+        <v>21777</v>
       </c>
       <c r="G6" t="n">
-        <v>1906</v>
+        <v>18574</v>
       </c>
       <c r="H6" t="n">
-        <v>1927</v>
+        <v>18380</v>
       </c>
       <c r="I6" t="n">
-        <v>1707</v>
+        <v>16030</v>
       </c>
       <c r="J6" t="n">
-        <v>1593</v>
+        <v>15898</v>
       </c>
       <c r="K6" t="n">
-        <v>1903</v>
+        <v>19220</v>
       </c>
       <c r="L6" t="n">
-        <v>1577</v>
+        <v>16555</v>
       </c>
       <c r="M6" t="n">
-        <v>1134</v>
+        <v>11540</v>
       </c>
       <c r="N6" t="n">
-        <v>2314</v>
+        <v>27403</v>
       </c>
       <c r="O6" t="n">
-        <v>3179</v>
+        <v>33996</v>
       </c>
       <c r="P6" t="n">
-        <v>3244</v>
+        <v>35233</v>
       </c>
       <c r="Q6" t="n">
-        <v>2848</v>
+        <v>30846</v>
       </c>
       <c r="R6" t="n">
-        <v>2689</v>
+        <v>26726</v>
       </c>
       <c r="S6" t="n">
-        <v>2441</v>
+        <v>21958</v>
       </c>
       <c r="T6" t="n">
-        <v>2218</v>
+        <v>21518</v>
       </c>
       <c r="U6" t="n">
-        <v>2136</v>
+        <v>22402</v>
       </c>
       <c r="V6" t="n">
-        <v>1944</v>
+        <v>21578</v>
       </c>
       <c r="W6" t="n">
-        <v>2013</v>
+        <v>22799</v>
       </c>
       <c r="X6" t="n">
-        <v>1638</v>
+        <v>17212</v>
       </c>
       <c r="Y6" t="n">
-        <v>1806</v>
+        <v>17408</v>
       </c>
       <c r="Z6" t="n">
-        <v>2451</v>
+        <v>25614</v>
       </c>
       <c r="AA6" t="n">
-        <v>3143</v>
+        <v>34753</v>
       </c>
       <c r="AB6" t="n">
-        <v>3653</v>
+        <v>41429</v>
       </c>
       <c r="AC6" t="n">
-        <v>3142</v>
+        <v>34342</v>
       </c>
       <c r="AD6" t="n">
-        <v>3722</v>
+        <v>38183</v>
       </c>
       <c r="AE6" t="n">
-        <v>3446</v>
+        <v>34027</v>
       </c>
       <c r="AF6" t="n">
-        <v>2822</v>
+        <v>31486</v>
       </c>
       <c r="AG6" t="n">
-        <v>2895</v>
+        <v>33955</v>
       </c>
       <c r="AH6" t="n">
-        <v>2851</v>
+        <v>36305</v>
       </c>
       <c r="AI6" t="n">
-        <v>2732</v>
+        <v>33734</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2610</v>
+        <v>30366</v>
       </c>
       <c r="AK6" t="n">
-        <v>2796</v>
+        <v>31413</v>
       </c>
       <c r="AL6" t="n">
-        <v>2837</v>
+        <v>32524</v>
       </c>
       <c r="AM6" t="n">
-        <v>3334</v>
+        <v>42308</v>
       </c>
       <c r="AN6" t="n">
-        <v>3866</v>
+        <v>46526</v>
       </c>
       <c r="AO6" t="n">
-        <v>3965</v>
+        <v>42159</v>
       </c>
       <c r="AP6" t="n">
-        <v>4546</v>
+        <v>48098</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4553</v>
+        <v>45389</v>
       </c>
       <c r="AR6" t="n">
-        <v>3588</v>
+        <v>37849</v>
       </c>
       <c r="AS6" t="n">
-        <v>4236</v>
+        <v>45006</v>
       </c>
       <c r="AT6" t="n">
-        <v>3949</v>
+        <v>43942</v>
       </c>
       <c r="AU6" t="n">
-        <v>3163</v>
+        <v>34571</v>
       </c>
       <c r="AV6" t="n">
-        <v>3102</v>
+        <v>35032</v>
       </c>
       <c r="AW6" t="n">
-        <v>2935</v>
+        <v>32134</v>
       </c>
       <c r="AX6" t="n">
-        <v>3137</v>
+        <v>42139</v>
       </c>
       <c r="AY6" t="n">
-        <v>3862</v>
+        <v>50603</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4160</v>
+        <v>51398</v>
       </c>
       <c r="BA6" t="n">
-        <v>4944</v>
+        <v>54793</v>
       </c>
       <c r="BB6" t="n">
-        <v>4305</v>
+        <v>44434</v>
       </c>
       <c r="BC6" t="n">
-        <v>4533</v>
+        <v>44880</v>
       </c>
       <c r="BD6" t="n">
-        <v>4245</v>
+        <v>42575</v>
       </c>
       <c r="BE6" t="n">
-        <v>3529</v>
+        <v>36151</v>
       </c>
       <c r="BF6" t="n">
-        <v>2801</v>
+        <v>29909</v>
       </c>
       <c r="BG6" t="n">
-        <v>3038</v>
+        <v>37210</v>
       </c>
       <c r="BH6" t="n">
-        <v>3045</v>
+        <v>37943</v>
       </c>
       <c r="BI6" t="n">
-        <v>3215</v>
+        <v>40051</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3346</v>
+        <v>55383</v>
       </c>
       <c r="BK6" t="n">
-        <v>3855</v>
+        <v>63292</v>
       </c>
       <c r="BL6" t="n">
-        <v>4045</v>
+        <v>62021</v>
       </c>
       <c r="BM6" t="n">
-        <v>4434</v>
+        <v>67412</v>
       </c>
       <c r="BN6" t="n">
-        <v>4680</v>
+        <v>68828</v>
       </c>
       <c r="BO6" t="n">
-        <v>4420</v>
+        <v>60694</v>
       </c>
       <c r="BP6" t="n">
-        <v>4122</v>
+        <v>55042</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3796</v>
+        <v>53036</v>
       </c>
       <c r="BR6" t="n">
-        <v>3831</v>
+        <v>54607</v>
       </c>
       <c r="BS6" t="n">
-        <v>3960</v>
+        <v>55375</v>
       </c>
       <c r="BT6" t="n">
-        <v>3393</v>
+        <v>46607</v>
       </c>
       <c r="BU6" t="n">
-        <v>3588</v>
+        <v>44494</v>
       </c>
       <c r="BV6" t="n">
-        <v>3441</v>
+        <v>67802</v>
       </c>
       <c r="BW6" t="n">
-        <v>4077</v>
+        <v>78209</v>
       </c>
       <c r="BX6" t="n">
-        <v>4320</v>
+        <v>82033</v>
       </c>
       <c r="BY6" t="n">
-        <v>4527</v>
+        <v>82386</v>
       </c>
       <c r="BZ6" t="n">
-        <v>5301</v>
+        <v>85862</v>
       </c>
       <c r="CA6" t="n">
-        <v>4230</v>
+        <v>70595</v>
       </c>
       <c r="CB6" t="n">
-        <v>4135</v>
+        <v>64689</v>
       </c>
       <c r="CC6" t="n">
-        <v>4461</v>
+        <v>68542</v>
       </c>
       <c r="CD6" t="n">
-        <v>3563</v>
+        <v>61241</v>
       </c>
       <c r="CE6" t="n">
-        <v>4071</v>
+        <v>72608</v>
       </c>
       <c r="CF6" t="n">
-        <v>3043</v>
+        <v>53226</v>
       </c>
       <c r="CG6" t="n">
-        <v>2879</v>
+        <v>47372</v>
       </c>
       <c r="CH6" t="n">
-        <v>4372</v>
+        <v>85721</v>
       </c>
       <c r="CI6" t="n">
-        <v>4970</v>
+        <v>102051</v>
       </c>
       <c r="CJ6" t="n">
-        <v>5414</v>
+        <v>109008</v>
       </c>
       <c r="CK6" t="n">
-        <v>5060</v>
+        <v>98605</v>
       </c>
       <c r="CL6" t="n">
-        <v>6330</v>
+        <v>114826</v>
       </c>
       <c r="CM6" t="n">
-        <v>5193</v>
+        <v>94068</v>
       </c>
       <c r="CN6" t="n">
-        <v>5137</v>
+        <v>88091</v>
       </c>
       <c r="CO6" t="n">
-        <v>5392</v>
+        <v>97965</v>
       </c>
       <c r="CP6" t="n">
-        <v>4342</v>
+        <v>82975</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5255</v>
+        <v>107712</v>
       </c>
       <c r="CR6" t="n">
-        <v>3917</v>
+        <v>79560</v>
       </c>
       <c r="CS6" t="n">
-        <v>4240</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>4378</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>4887</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>5732</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>5720</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>6064</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>5940</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>5748</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>5135</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>5714</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>4963</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>5003</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>4973</v>
+        <v>84062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
+          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>1538</v>
       </c>
       <c r="C7" t="n">
-        <v>214</v>
+        <v>1801</v>
       </c>
       <c r="D7" t="n">
-        <v>254</v>
+        <v>1714</v>
       </c>
       <c r="E7" t="n">
-        <v>330</v>
+        <v>1959</v>
       </c>
       <c r="F7" t="n">
-        <v>260</v>
+        <v>2168</v>
       </c>
       <c r="G7" t="n">
-        <v>259</v>
+        <v>1906</v>
       </c>
       <c r="H7" t="n">
-        <v>269</v>
+        <v>1927</v>
       </c>
       <c r="I7" t="n">
-        <v>206</v>
+        <v>1707</v>
       </c>
       <c r="J7" t="n">
-        <v>244</v>
+        <v>1593</v>
       </c>
       <c r="K7" t="n">
-        <v>290</v>
+        <v>1903</v>
       </c>
       <c r="L7" t="n">
-        <v>304</v>
+        <v>1577</v>
       </c>
       <c r="M7" t="n">
-        <v>285</v>
+        <v>1134</v>
       </c>
       <c r="N7" t="n">
-        <v>414</v>
+        <v>2314</v>
       </c>
       <c r="O7" t="n">
-        <v>503</v>
+        <v>3179</v>
       </c>
       <c r="P7" t="n">
-        <v>523</v>
+        <v>3244</v>
       </c>
       <c r="Q7" t="n">
-        <v>437</v>
+        <v>2848</v>
       </c>
       <c r="R7" t="n">
-        <v>423</v>
+        <v>2689</v>
       </c>
       <c r="S7" t="n">
-        <v>360</v>
+        <v>2441</v>
       </c>
       <c r="T7" t="n">
-        <v>369</v>
+        <v>2218</v>
       </c>
       <c r="U7" t="n">
-        <v>359</v>
+        <v>2136</v>
       </c>
       <c r="V7" t="n">
-        <v>325</v>
+        <v>1944</v>
       </c>
       <c r="W7" t="n">
-        <v>280</v>
+        <v>2013</v>
       </c>
       <c r="X7" t="n">
-        <v>216</v>
+        <v>1638</v>
       </c>
       <c r="Y7" t="n">
-        <v>221</v>
+        <v>1806</v>
       </c>
       <c r="Z7" t="n">
-        <v>451</v>
+        <v>2451</v>
       </c>
       <c r="AA7" t="n">
-        <v>541</v>
+        <v>3143</v>
       </c>
       <c r="AB7" t="n">
-        <v>620</v>
+        <v>3653</v>
       </c>
       <c r="AC7" t="n">
-        <v>496</v>
+        <v>3142</v>
       </c>
       <c r="AD7" t="n">
-        <v>578</v>
+        <v>3722</v>
       </c>
       <c r="AE7" t="n">
-        <v>441</v>
+        <v>3446</v>
       </c>
       <c r="AF7" t="n">
-        <v>482</v>
+        <v>2822</v>
       </c>
       <c r="AG7" t="n">
-        <v>513</v>
+        <v>2895</v>
       </c>
       <c r="AH7" t="n">
-        <v>454</v>
+        <v>2851</v>
       </c>
       <c r="AI7" t="n">
-        <v>492</v>
+        <v>2732</v>
       </c>
       <c r="AJ7" t="n">
-        <v>401</v>
+        <v>2610</v>
       </c>
       <c r="AK7" t="n">
-        <v>421</v>
+        <v>2796</v>
       </c>
       <c r="AL7" t="n">
-        <v>557</v>
+        <v>2837</v>
       </c>
       <c r="AM7" t="n">
-        <v>665</v>
+        <v>3334</v>
       </c>
       <c r="AN7" t="n">
-        <v>706</v>
+        <v>3866</v>
       </c>
       <c r="AO7" t="n">
-        <v>664</v>
+        <v>3965</v>
       </c>
       <c r="AP7" t="n">
-        <v>789</v>
+        <v>4546</v>
       </c>
       <c r="AQ7" t="n">
-        <v>705</v>
+        <v>4553</v>
       </c>
       <c r="AR7" t="n">
-        <v>607</v>
+        <v>3588</v>
       </c>
       <c r="AS7" t="n">
-        <v>783</v>
+        <v>4236</v>
       </c>
       <c r="AT7" t="n">
-        <v>768</v>
+        <v>3949</v>
       </c>
       <c r="AU7" t="n">
-        <v>566</v>
+        <v>3163</v>
       </c>
       <c r="AV7" t="n">
-        <v>540</v>
+        <v>3102</v>
       </c>
       <c r="AW7" t="n">
-        <v>560</v>
+        <v>2935</v>
       </c>
       <c r="AX7" t="n">
-        <v>780</v>
+        <v>3137</v>
       </c>
       <c r="AY7" t="n">
-        <v>888</v>
+        <v>3862</v>
       </c>
       <c r="AZ7" t="n">
-        <v>855</v>
+        <v>4160</v>
       </c>
       <c r="BA7" t="n">
-        <v>868</v>
+        <v>4944</v>
       </c>
       <c r="BB7" t="n">
-        <v>740</v>
+        <v>4305</v>
       </c>
       <c r="BC7" t="n">
-        <v>777</v>
+        <v>4533</v>
       </c>
       <c r="BD7" t="n">
-        <v>652</v>
+        <v>4245</v>
       </c>
       <c r="BE7" t="n">
-        <v>508</v>
+        <v>3529</v>
       </c>
       <c r="BF7" t="n">
-        <v>346</v>
+        <v>2801</v>
       </c>
       <c r="BG7" t="n">
-        <v>548</v>
+        <v>3038</v>
       </c>
       <c r="BH7" t="n">
-        <v>589</v>
+        <v>3045</v>
       </c>
       <c r="BI7" t="n">
-        <v>565</v>
+        <v>3215</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1023</v>
+        <v>3346</v>
       </c>
       <c r="BK7" t="n">
-        <v>1004</v>
+        <v>3855</v>
       </c>
       <c r="BL7" t="n">
-        <v>1001</v>
+        <v>4045</v>
       </c>
       <c r="BM7" t="n">
-        <v>1007</v>
+        <v>4434</v>
       </c>
       <c r="BN7" t="n">
-        <v>1085</v>
+        <v>4680</v>
       </c>
       <c r="BO7" t="n">
-        <v>931</v>
+        <v>4420</v>
       </c>
       <c r="BP7" t="n">
-        <v>881</v>
+        <v>4122</v>
       </c>
       <c r="BQ7" t="n">
-        <v>834</v>
+        <v>3796</v>
       </c>
       <c r="BR7" t="n">
-        <v>850</v>
+        <v>3831</v>
       </c>
       <c r="BS7" t="n">
-        <v>896</v>
+        <v>3960</v>
       </c>
       <c r="BT7" t="n">
-        <v>830</v>
+        <v>3393</v>
       </c>
       <c r="BU7" t="n">
-        <v>879</v>
+        <v>3588</v>
       </c>
       <c r="BV7" t="n">
-        <v>860</v>
+        <v>3441</v>
       </c>
       <c r="BW7" t="n">
-        <v>998</v>
+        <v>4077</v>
       </c>
       <c r="BX7" t="n">
-        <v>975</v>
+        <v>4320</v>
       </c>
       <c r="BY7" t="n">
-        <v>1086</v>
+        <v>4527</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1310</v>
+        <v>5301</v>
       </c>
       <c r="CA7" t="n">
-        <v>1038</v>
+        <v>4230</v>
       </c>
       <c r="CB7" t="n">
-        <v>960</v>
+        <v>4135</v>
       </c>
       <c r="CC7" t="n">
-        <v>1156</v>
+        <v>4461</v>
       </c>
       <c r="CD7" t="n">
-        <v>904</v>
+        <v>3563</v>
       </c>
       <c r="CE7" t="n">
-        <v>1123</v>
+        <v>4071</v>
       </c>
       <c r="CF7" t="n">
-        <v>831</v>
+        <v>3043</v>
       </c>
       <c r="CG7" t="n">
-        <v>722</v>
+        <v>2879</v>
       </c>
       <c r="CH7" t="n">
-        <v>1167</v>
+        <v>4372</v>
       </c>
       <c r="CI7" t="n">
-        <v>1279</v>
+        <v>4970</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1425</v>
+        <v>5414</v>
       </c>
       <c r="CK7" t="n">
-        <v>1309</v>
+        <v>5060</v>
       </c>
       <c r="CL7" t="n">
-        <v>1596</v>
+        <v>6330</v>
       </c>
       <c r="CM7" t="n">
-        <v>1205</v>
+        <v>5193</v>
       </c>
       <c r="CN7" t="n">
-        <v>1154</v>
+        <v>5137</v>
       </c>
       <c r="CO7" t="n">
-        <v>1313</v>
+        <v>5392</v>
       </c>
       <c r="CP7" t="n">
-        <v>976</v>
+        <v>4342</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1260</v>
+        <v>5255</v>
       </c>
       <c r="CR7" t="n">
-        <v>974</v>
+        <v>3917</v>
       </c>
       <c r="CS7" t="n">
-        <v>894</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>1199</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>1431</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>1722</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>1538</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>1692</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>1538</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>1409</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>1149</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>1429</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>1322</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>1259</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>1233</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F70-F79 - Retardo mental</t>
+          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>735</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
-        <v>915</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>918</v>
+        <v>254</v>
       </c>
       <c r="E8" t="n">
-        <v>970</v>
+        <v>330</v>
       </c>
       <c r="F8" t="n">
-        <v>1204</v>
+        <v>260</v>
       </c>
       <c r="G8" t="n">
-        <v>959</v>
+        <v>259</v>
       </c>
       <c r="H8" t="n">
-        <v>1058</v>
+        <v>269</v>
       </c>
       <c r="I8" t="n">
-        <v>946</v>
+        <v>206</v>
       </c>
       <c r="J8" t="n">
-        <v>930</v>
+        <v>244</v>
       </c>
       <c r="K8" t="n">
-        <v>1056</v>
+        <v>290</v>
       </c>
       <c r="L8" t="n">
-        <v>932</v>
+        <v>304</v>
       </c>
       <c r="M8" t="n">
-        <v>627</v>
+        <v>285</v>
       </c>
       <c r="N8" t="n">
-        <v>1168</v>
+        <v>414</v>
       </c>
       <c r="O8" t="n">
-        <v>1443</v>
+        <v>503</v>
       </c>
       <c r="P8" t="n">
-        <v>1390</v>
+        <v>523</v>
       </c>
       <c r="Q8" t="n">
-        <v>1243</v>
+        <v>437</v>
       </c>
       <c r="R8" t="n">
-        <v>1231</v>
+        <v>423</v>
       </c>
       <c r="S8" t="n">
-        <v>1101</v>
+        <v>360</v>
       </c>
       <c r="T8" t="n">
-        <v>1089</v>
+        <v>369</v>
       </c>
       <c r="U8" t="n">
-        <v>1142</v>
+        <v>359</v>
       </c>
       <c r="V8" t="n">
-        <v>1042</v>
+        <v>325</v>
       </c>
       <c r="W8" t="n">
+        <v>280</v>
+      </c>
+      <c r="X8" t="n">
+        <v>216</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>221</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>451</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>541</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>620</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>496</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>578</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>441</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>482</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>513</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>454</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>492</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>421</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>557</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>665</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>706</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>664</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>789</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>705</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>607</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>783</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>768</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>566</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>540</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>560</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>780</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>888</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>855</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>868</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>740</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>777</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>652</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>508</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>346</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>548</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>589</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>565</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1004</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1001</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1007</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1085</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>931</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>881</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>834</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>850</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>896</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>830</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>879</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>860</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>998</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>975</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1086</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1310</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>1038</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>960</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1156</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>904</v>
+      </c>
+      <c r="CE8" t="n">
         <v>1123</v>
       </c>
-      <c r="X8" t="n">
-        <v>778</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>884</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1067</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1378</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1654</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1358</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1527</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1344</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1320</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1455</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1457</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1209</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1207</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1125</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1360</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1605</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1435</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1782</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1736</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1441</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1587</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>1677</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>1329</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1377</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>1213</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1065</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1212</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1237</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1244</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1018</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>863</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>872</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>732</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>625</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>1171</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>1288</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1332</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>1500</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>1744</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>1601</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>1692</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>1778</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>1704</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>1822</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>1727</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>1151</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1188</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>1201</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>1077</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>1884</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>1897</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>2002</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>2054</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>1721</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>1804</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>1741</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>1491</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>1908</v>
-      </c>
       <c r="CF8" t="n">
-        <v>1475</v>
+        <v>831</v>
       </c>
       <c r="CG8" t="n">
-        <v>1185</v>
+        <v>722</v>
       </c>
       <c r="CH8" t="n">
-        <v>2088</v>
+        <v>1167</v>
       </c>
       <c r="CI8" t="n">
-        <v>2466</v>
+        <v>1279</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2641</v>
+        <v>1425</v>
       </c>
       <c r="CK8" t="n">
-        <v>2297</v>
+        <v>1309</v>
       </c>
       <c r="CL8" t="n">
-        <v>2934</v>
+        <v>1596</v>
       </c>
       <c r="CM8" t="n">
-        <v>2429</v>
+        <v>1205</v>
       </c>
       <c r="CN8" t="n">
-        <v>2216</v>
+        <v>1154</v>
       </c>
       <c r="CO8" t="n">
-        <v>2511</v>
+        <v>1313</v>
       </c>
       <c r="CP8" t="n">
-        <v>1988</v>
+        <v>976</v>
       </c>
       <c r="CQ8" t="n">
-        <v>2624</v>
+        <v>1260</v>
       </c>
       <c r="CR8" t="n">
-        <v>1900</v>
+        <v>974</v>
       </c>
       <c r="CS8" t="n">
-        <v>1825</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>1924</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>2339</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>2660</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>2508</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>2598</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>2537</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>2362</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>2050</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>2792</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>2465</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>2365</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>2297</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
+          <t>F70-F79 - Retardo mental</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="C9" t="n">
-        <v>1137</v>
+        <v>915</v>
       </c>
       <c r="D9" t="n">
-        <v>1252</v>
+        <v>918</v>
       </c>
       <c r="E9" t="n">
-        <v>1258</v>
+        <v>970</v>
       </c>
       <c r="F9" t="n">
-        <v>1525</v>
+        <v>1204</v>
       </c>
       <c r="G9" t="n">
-        <v>1256</v>
+        <v>959</v>
       </c>
       <c r="H9" t="n">
-        <v>1327</v>
+        <v>1058</v>
       </c>
       <c r="I9" t="n">
-        <v>1050</v>
+        <v>946</v>
       </c>
       <c r="J9" t="n">
-        <v>1016</v>
+        <v>930</v>
       </c>
       <c r="K9" t="n">
+        <v>1056</v>
+      </c>
+      <c r="L9" t="n">
+        <v>932</v>
+      </c>
+      <c r="M9" t="n">
+        <v>627</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1168</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1443</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1390</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1243</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1231</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1101</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1089</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1142</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1042</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1123</v>
+      </c>
+      <c r="X9" t="n">
+        <v>778</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>884</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1067</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1378</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1654</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1358</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1527</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1320</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1494</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1455</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1457</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1209</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1207</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1125</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1360</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1605</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1782</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1736</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1441</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1587</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1677</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1377</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1213</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1065</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1212</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1237</v>
+      </c>
+      <c r="BA9" t="n">
         <v>1244</v>
       </c>
-      <c r="L9" t="n">
-        <v>785</v>
-      </c>
-      <c r="M9" t="n">
-        <v>482</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1381</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1848</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2204</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="BB9" t="n">
+        <v>1018</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>863</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>872</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>732</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>625</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1171</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1332</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1744</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1601</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1692</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1778</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1704</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1822</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1727</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1151</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1188</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1201</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1077</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1731</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1884</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>1897</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>2054</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1721</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>1804</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>1741</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>1491</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1908</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>1475</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>1185</v>
+      </c>
+      <c r="CH9" t="n">
         <v>2088</v>
       </c>
-      <c r="R9" t="n">
-        <v>1828</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1407</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1385</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1493</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1341</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1375</v>
-      </c>
-      <c r="X9" t="n">
-        <v>826</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>928</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1609</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2302</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2799</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2997</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>2231</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2510</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2782</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2328</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2162</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1432</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1265</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2506</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>3652</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3967</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>3645</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>4448</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>4241</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>3946</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>4492</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4194</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3057</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>2352</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1790</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>2510</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>3388</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>3437</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>3197</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>2516</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>2053</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>1870</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>1293</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>731</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>2521</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>3006</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>2603</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>5371</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>6315</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>5678</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>5896</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>6243</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>5311</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>4720</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>4383</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>3984</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>3640</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>3640</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>2666</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>6737</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>8626</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>8887</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>9439</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>9924</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>7441</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>7604</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>7859</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>6441</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>7309</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>5189</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>3725</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>11705</v>
-      </c>
       <c r="CI9" t="n">
-        <v>14682</v>
+        <v>2466</v>
       </c>
       <c r="CJ9" t="n">
-        <v>16808</v>
+        <v>2641</v>
       </c>
       <c r="CK9" t="n">
-        <v>14586</v>
+        <v>2297</v>
       </c>
       <c r="CL9" t="n">
-        <v>17359</v>
+        <v>2934</v>
       </c>
       <c r="CM9" t="n">
-        <v>13287</v>
+        <v>2429</v>
       </c>
       <c r="CN9" t="n">
-        <v>12734</v>
+        <v>2216</v>
       </c>
       <c r="CO9" t="n">
-        <v>13997</v>
+        <v>2511</v>
       </c>
       <c r="CP9" t="n">
-        <v>10619</v>
+        <v>1988</v>
       </c>
       <c r="CQ9" t="n">
-        <v>12296</v>
+        <v>2624</v>
       </c>
       <c r="CR9" t="n">
-        <v>8425</v>
+        <v>1900</v>
       </c>
       <c r="CS9" t="n">
-        <v>7702</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>12681</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>17399</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>20250</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>19382</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>19591</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>18268</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>18671</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>16156</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>19764</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>16064</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>14701</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>12488</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
+          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2779</v>
+        <v>717</v>
       </c>
       <c r="C10" t="n">
-        <v>3300</v>
+        <v>1137</v>
       </c>
       <c r="D10" t="n">
-        <v>3579</v>
+        <v>1252</v>
       </c>
       <c r="E10" t="n">
-        <v>4181</v>
+        <v>1258</v>
       </c>
       <c r="F10" t="n">
-        <v>4441</v>
+        <v>1525</v>
       </c>
       <c r="G10" t="n">
-        <v>3767</v>
+        <v>1256</v>
       </c>
       <c r="H10" t="n">
-        <v>4236</v>
+        <v>1327</v>
       </c>
       <c r="I10" t="n">
-        <v>3757</v>
+        <v>1050</v>
       </c>
       <c r="J10" t="n">
-        <v>3223</v>
+        <v>1016</v>
       </c>
       <c r="K10" t="n">
-        <v>4038</v>
+        <v>1244</v>
       </c>
       <c r="L10" t="n">
-        <v>3025</v>
+        <v>785</v>
       </c>
       <c r="M10" t="n">
-        <v>2310</v>
+        <v>482</v>
       </c>
       <c r="N10" t="n">
-        <v>4560</v>
+        <v>1381</v>
       </c>
       <c r="O10" t="n">
-        <v>5855</v>
+        <v>1848</v>
       </c>
       <c r="P10" t="n">
-        <v>6287</v>
+        <v>2204</v>
       </c>
       <c r="Q10" t="n">
-        <v>5239</v>
+        <v>2088</v>
       </c>
       <c r="R10" t="n">
-        <v>5148</v>
+        <v>1828</v>
       </c>
       <c r="S10" t="n">
-        <v>3990</v>
+        <v>1407</v>
       </c>
       <c r="T10" t="n">
-        <v>4022</v>
+        <v>1385</v>
       </c>
       <c r="U10" t="n">
-        <v>4446</v>
+        <v>1493</v>
       </c>
       <c r="V10" t="n">
-        <v>4040</v>
+        <v>1341</v>
       </c>
       <c r="W10" t="n">
-        <v>4061</v>
+        <v>1375</v>
       </c>
       <c r="X10" t="n">
-        <v>2841</v>
+        <v>826</v>
       </c>
       <c r="Y10" t="n">
-        <v>3160</v>
+        <v>928</v>
       </c>
       <c r="Z10" t="n">
-        <v>3567</v>
+        <v>1609</v>
       </c>
       <c r="AA10" t="n">
-        <v>5270</v>
+        <v>2302</v>
       </c>
       <c r="AB10" t="n">
-        <v>6709</v>
+        <v>2799</v>
       </c>
       <c r="AC10" t="n">
-        <v>5372</v>
+        <v>2500</v>
       </c>
       <c r="AD10" t="n">
-        <v>6301</v>
+        <v>2997</v>
       </c>
       <c r="AE10" t="n">
-        <v>5406</v>
+        <v>2231</v>
       </c>
       <c r="AF10" t="n">
-        <v>5577</v>
+        <v>2510</v>
       </c>
       <c r="AG10" t="n">
-        <v>6209</v>
+        <v>2782</v>
       </c>
       <c r="AH10" t="n">
-        <v>6738</v>
+        <v>2328</v>
       </c>
       <c r="AI10" t="n">
-        <v>6093</v>
+        <v>2162</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4964</v>
+        <v>1432</v>
       </c>
       <c r="AK10" t="n">
-        <v>5085</v>
+        <v>1265</v>
       </c>
       <c r="AL10" t="n">
-        <v>3839</v>
+        <v>2506</v>
       </c>
       <c r="AM10" t="n">
-        <v>5397</v>
+        <v>3652</v>
       </c>
       <c r="AN10" t="n">
-        <v>5887</v>
+        <v>3967</v>
       </c>
       <c r="AO10" t="n">
-        <v>5536</v>
+        <v>3645</v>
       </c>
       <c r="AP10" t="n">
-        <v>6747</v>
+        <v>4448</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6378</v>
+        <v>4241</v>
       </c>
       <c r="AR10" t="n">
-        <v>5650</v>
+        <v>3946</v>
       </c>
       <c r="AS10" t="n">
-        <v>6594</v>
+        <v>4492</v>
       </c>
       <c r="AT10" t="n">
-        <v>6164</v>
+        <v>4194</v>
       </c>
       <c r="AU10" t="n">
-        <v>4392</v>
+        <v>3057</v>
       </c>
       <c r="AV10" t="n">
-        <v>4466</v>
+        <v>2352</v>
       </c>
       <c r="AW10" t="n">
-        <v>3993</v>
+        <v>1790</v>
       </c>
       <c r="AX10" t="n">
-        <v>3828</v>
+        <v>2510</v>
       </c>
       <c r="AY10" t="n">
-        <v>4589</v>
+        <v>3388</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4802</v>
+        <v>3437</v>
       </c>
       <c r="BA10" t="n">
-        <v>4910</v>
+        <v>3197</v>
       </c>
       <c r="BB10" t="n">
-        <v>3812</v>
+        <v>2516</v>
       </c>
       <c r="BC10" t="n">
-        <v>3753</v>
+        <v>2053</v>
       </c>
       <c r="BD10" t="n">
-        <v>3665</v>
+        <v>1870</v>
       </c>
       <c r="BE10" t="n">
-        <v>3098</v>
+        <v>1293</v>
       </c>
       <c r="BF10" t="n">
-        <v>2612</v>
+        <v>731</v>
       </c>
       <c r="BG10" t="n">
-        <v>4410</v>
+        <v>2521</v>
       </c>
       <c r="BH10" t="n">
-        <v>4518</v>
+        <v>3006</v>
       </c>
       <c r="BI10" t="n">
-        <v>4682</v>
+        <v>2603</v>
       </c>
       <c r="BJ10" t="n">
-        <v>5301</v>
+        <v>5371</v>
       </c>
       <c r="BK10" t="n">
-        <v>6385</v>
+        <v>6315</v>
       </c>
       <c r="BL10" t="n">
-        <v>6340</v>
+        <v>5678</v>
       </c>
       <c r="BM10" t="n">
-        <v>6314</v>
+        <v>5896</v>
       </c>
       <c r="BN10" t="n">
-        <v>6366</v>
+        <v>6243</v>
       </c>
       <c r="BO10" t="n">
-        <v>5592</v>
+        <v>5311</v>
       </c>
       <c r="BP10" t="n">
-        <v>5106</v>
+        <v>4720</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4815</v>
+        <v>4383</v>
       </c>
       <c r="BR10" t="n">
-        <v>5067</v>
+        <v>3984</v>
       </c>
       <c r="BS10" t="n">
-        <v>4819</v>
+        <v>3640</v>
       </c>
       <c r="BT10" t="n">
-        <v>4429</v>
+        <v>3640</v>
       </c>
       <c r="BU10" t="n">
-        <v>3936</v>
+        <v>2666</v>
       </c>
       <c r="BV10" t="n">
-        <v>6327</v>
+        <v>6737</v>
       </c>
       <c r="BW10" t="n">
-        <v>7635</v>
+        <v>8626</v>
       </c>
       <c r="BX10" t="n">
-        <v>8389</v>
+        <v>8887</v>
       </c>
       <c r="BY10" t="n">
-        <v>8691</v>
+        <v>9439</v>
       </c>
       <c r="BZ10" t="n">
-        <v>9286</v>
+        <v>9924</v>
       </c>
       <c r="CA10" t="n">
-        <v>7362</v>
+        <v>7441</v>
       </c>
       <c r="CB10" t="n">
-        <v>7633</v>
+        <v>7604</v>
       </c>
       <c r="CC10" t="n">
-        <v>7455</v>
+        <v>7859</v>
       </c>
       <c r="CD10" t="n">
-        <v>6309</v>
+        <v>6441</v>
       </c>
       <c r="CE10" t="n">
-        <v>7585</v>
+        <v>7309</v>
       </c>
       <c r="CF10" t="n">
-        <v>5456</v>
+        <v>5189</v>
       </c>
       <c r="CG10" t="n">
-        <v>4173</v>
+        <v>3725</v>
       </c>
       <c r="CH10" t="n">
-        <v>8460</v>
+        <v>11705</v>
       </c>
       <c r="CI10" t="n">
-        <v>11068</v>
+        <v>14682</v>
       </c>
       <c r="CJ10" t="n">
-        <v>12339</v>
+        <v>16808</v>
       </c>
       <c r="CK10" t="n">
-        <v>10906</v>
+        <v>14586</v>
       </c>
       <c r="CL10" t="n">
-        <v>12884</v>
+        <v>17359</v>
       </c>
       <c r="CM10" t="n">
-        <v>10094</v>
+        <v>13287</v>
       </c>
       <c r="CN10" t="n">
-        <v>10512</v>
+        <v>12734</v>
       </c>
       <c r="CO10" t="n">
-        <v>11038</v>
+        <v>13997</v>
       </c>
       <c r="CP10" t="n">
-        <v>9117</v>
+        <v>10619</v>
       </c>
       <c r="CQ10" t="n">
-        <v>11428</v>
+        <v>12296</v>
       </c>
       <c r="CR10" t="n">
-        <v>7402</v>
+        <v>8425</v>
       </c>
       <c r="CS10" t="n">
-        <v>7118</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>9224</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>12409</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>15586</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>14347</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>14585</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>13662</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>13111</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>11325</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>14369</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>11629</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>10188</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>9480</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F99-F99 - Transtorno mental não especificado</t>
+          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>273</v>
+        <v>2779</v>
       </c>
       <c r="C11" t="n">
-        <v>345</v>
+        <v>3300</v>
       </c>
       <c r="D11" t="n">
-        <v>290</v>
+        <v>3579</v>
       </c>
       <c r="E11" t="n">
-        <v>219</v>
+        <v>4181</v>
       </c>
       <c r="F11" t="n">
-        <v>394</v>
+        <v>4441</v>
       </c>
       <c r="G11" t="n">
-        <v>246</v>
+        <v>3767</v>
       </c>
       <c r="H11" t="n">
-        <v>186</v>
+        <v>4236</v>
       </c>
       <c r="I11" t="n">
-        <v>198</v>
+        <v>3757</v>
       </c>
       <c r="J11" t="n">
-        <v>166</v>
+        <v>3223</v>
       </c>
       <c r="K11" t="n">
-        <v>276</v>
+        <v>4038</v>
       </c>
       <c r="L11" t="n">
-        <v>212</v>
+        <v>3025</v>
       </c>
       <c r="M11" t="n">
-        <v>213</v>
+        <v>2310</v>
       </c>
       <c r="N11" t="n">
-        <v>472</v>
+        <v>4560</v>
       </c>
       <c r="O11" t="n">
-        <v>754</v>
+        <v>5855</v>
       </c>
       <c r="P11" t="n">
-        <v>747</v>
+        <v>6287</v>
       </c>
       <c r="Q11" t="n">
-        <v>685</v>
+        <v>5239</v>
       </c>
       <c r="R11" t="n">
-        <v>495</v>
+        <v>5148</v>
       </c>
       <c r="S11" t="n">
-        <v>333</v>
+        <v>3990</v>
       </c>
       <c r="T11" t="n">
-        <v>345</v>
+        <v>4022</v>
       </c>
       <c r="U11" t="n">
-        <v>454</v>
+        <v>4446</v>
       </c>
       <c r="V11" t="n">
-        <v>347</v>
+        <v>4040</v>
       </c>
       <c r="W11" t="n">
-        <v>379</v>
+        <v>4061</v>
       </c>
       <c r="X11" t="n">
-        <v>286</v>
+        <v>2841</v>
       </c>
       <c r="Y11" t="n">
-        <v>374</v>
+        <v>3160</v>
       </c>
       <c r="Z11" t="n">
-        <v>621</v>
+        <v>3567</v>
       </c>
       <c r="AA11" t="n">
-        <v>925</v>
+        <v>5270</v>
       </c>
       <c r="AB11" t="n">
-        <v>846</v>
+        <v>6709</v>
       </c>
       <c r="AC11" t="n">
-        <v>803</v>
+        <v>5372</v>
       </c>
       <c r="AD11" t="n">
-        <v>891</v>
+        <v>6301</v>
       </c>
       <c r="AE11" t="n">
-        <v>929</v>
+        <v>5406</v>
       </c>
       <c r="AF11" t="n">
-        <v>1162</v>
+        <v>5577</v>
       </c>
       <c r="AG11" t="n">
-        <v>1070</v>
+        <v>6209</v>
       </c>
       <c r="AH11" t="n">
-        <v>1110</v>
+        <v>6738</v>
       </c>
       <c r="AI11" t="n">
-        <v>988</v>
+        <v>6093</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>4964</v>
       </c>
       <c r="AK11" t="n">
-        <v>823</v>
+        <v>5085</v>
       </c>
       <c r="AL11" t="n">
-        <v>930</v>
+        <v>3839</v>
       </c>
       <c r="AM11" t="n">
-        <v>1118</v>
+        <v>5397</v>
       </c>
       <c r="AN11" t="n">
-        <v>1311</v>
+        <v>5887</v>
       </c>
       <c r="AO11" t="n">
-        <v>1198</v>
+        <v>5536</v>
       </c>
       <c r="AP11" t="n">
-        <v>1229</v>
+        <v>6747</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1363</v>
+        <v>6378</v>
       </c>
       <c r="AR11" t="n">
-        <v>1276</v>
+        <v>5650</v>
       </c>
       <c r="AS11" t="n">
-        <v>1424</v>
+        <v>6594</v>
       </c>
       <c r="AT11" t="n">
-        <v>1530</v>
+        <v>6164</v>
       </c>
       <c r="AU11" t="n">
-        <v>864</v>
+        <v>4392</v>
       </c>
       <c r="AV11" t="n">
-        <v>1090</v>
+        <v>4466</v>
       </c>
       <c r="AW11" t="n">
-        <v>852</v>
+        <v>3993</v>
       </c>
       <c r="AX11" t="n">
-        <v>873</v>
+        <v>3828</v>
       </c>
       <c r="AY11" t="n">
-        <v>1166</v>
+        <v>4589</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1113</v>
+        <v>4802</v>
       </c>
       <c r="BA11" t="n">
-        <v>1213</v>
+        <v>4910</v>
       </c>
       <c r="BB11" t="n">
-        <v>1235</v>
+        <v>3812</v>
       </c>
       <c r="BC11" t="n">
-        <v>1288</v>
+        <v>3753</v>
       </c>
       <c r="BD11" t="n">
-        <v>1309</v>
+        <v>3665</v>
       </c>
       <c r="BE11" t="n">
-        <v>1052</v>
+        <v>3098</v>
       </c>
       <c r="BF11" t="n">
-        <v>1117</v>
+        <v>2612</v>
       </c>
       <c r="BG11" t="n">
-        <v>1047</v>
+        <v>4410</v>
       </c>
       <c r="BH11" t="n">
-        <v>817</v>
+        <v>4518</v>
       </c>
       <c r="BI11" t="n">
-        <v>855</v>
+        <v>4682</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1794</v>
+        <v>5301</v>
       </c>
       <c r="BK11" t="n">
-        <v>1756</v>
+        <v>6385</v>
       </c>
       <c r="BL11" t="n">
-        <v>1673</v>
+        <v>6340</v>
       </c>
       <c r="BM11" t="n">
-        <v>1829</v>
+        <v>6314</v>
       </c>
       <c r="BN11" t="n">
-        <v>1787</v>
+        <v>6366</v>
       </c>
       <c r="BO11" t="n">
-        <v>1345</v>
+        <v>5592</v>
       </c>
       <c r="BP11" t="n">
-        <v>1135</v>
+        <v>5106</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1400</v>
+        <v>4815</v>
       </c>
       <c r="BR11" t="n">
-        <v>1000</v>
+        <v>5067</v>
       </c>
       <c r="BS11" t="n">
-        <v>1013</v>
+        <v>4819</v>
       </c>
       <c r="BT11" t="n">
-        <v>759</v>
+        <v>4429</v>
       </c>
       <c r="BU11" t="n">
-        <v>881</v>
+        <v>3936</v>
       </c>
       <c r="BV11" t="n">
-        <v>1647</v>
+        <v>6327</v>
       </c>
       <c r="BW11" t="n">
-        <v>1643</v>
+        <v>7635</v>
       </c>
       <c r="BX11" t="n">
-        <v>1586</v>
+        <v>8389</v>
       </c>
       <c r="BY11" t="n">
-        <v>1324</v>
+        <v>8691</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1513</v>
+        <v>9286</v>
       </c>
       <c r="CA11" t="n">
-        <v>1556</v>
+        <v>7362</v>
       </c>
       <c r="CB11" t="n">
-        <v>1648</v>
+        <v>7633</v>
       </c>
       <c r="CC11" t="n">
-        <v>1748</v>
+        <v>7455</v>
       </c>
       <c r="CD11" t="n">
-        <v>1460</v>
+        <v>6309</v>
       </c>
       <c r="CE11" t="n">
-        <v>1715</v>
+        <v>7585</v>
       </c>
       <c r="CF11" t="n">
-        <v>1472</v>
+        <v>5456</v>
       </c>
       <c r="CG11" t="n">
-        <v>1268</v>
+        <v>4173</v>
       </c>
       <c r="CH11" t="n">
-        <v>2343</v>
+        <v>8460</v>
       </c>
       <c r="CI11" t="n">
-        <v>2440</v>
+        <v>11068</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2538</v>
+        <v>12339</v>
       </c>
       <c r="CK11" t="n">
-        <v>2511</v>
+        <v>10906</v>
       </c>
       <c r="CL11" t="n">
-        <v>3047</v>
+        <v>12884</v>
       </c>
       <c r="CM11" t="n">
-        <v>2445</v>
+        <v>10094</v>
       </c>
       <c r="CN11" t="n">
-        <v>2578</v>
+        <v>10512</v>
       </c>
       <c r="CO11" t="n">
-        <v>2975</v>
+        <v>11038</v>
       </c>
       <c r="CP11" t="n">
-        <v>2376</v>
+        <v>9117</v>
       </c>
       <c r="CQ11" t="n">
-        <v>3549</v>
+        <v>11428</v>
       </c>
       <c r="CR11" t="n">
-        <v>2723</v>
+        <v>7402</v>
       </c>
       <c r="CS11" t="n">
-        <v>2130</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>2520</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>2992</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>3542</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>3212</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>3354</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>3799</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>3454</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>3115</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>3445</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>2965</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>2475</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>2273</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>F99-F99 - Transtorno mental não especificado</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>345</v>
+      </c>
+      <c r="D12" t="n">
+        <v>290</v>
+      </c>
+      <c r="E12" t="n">
+        <v>219</v>
+      </c>
+      <c r="F12" t="n">
+        <v>394</v>
+      </c>
+      <c r="G12" t="n">
+        <v>246</v>
+      </c>
+      <c r="H12" t="n">
+        <v>186</v>
+      </c>
+      <c r="I12" t="n">
+        <v>198</v>
+      </c>
+      <c r="J12" t="n">
+        <v>166</v>
+      </c>
+      <c r="K12" t="n">
+        <v>276</v>
+      </c>
+      <c r="L12" t="n">
+        <v>212</v>
+      </c>
+      <c r="M12" t="n">
+        <v>213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>472</v>
+      </c>
+      <c r="O12" t="n">
+        <v>754</v>
+      </c>
+      <c r="P12" t="n">
+        <v>747</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>685</v>
+      </c>
+      <c r="R12" t="n">
+        <v>495</v>
+      </c>
+      <c r="S12" t="n">
+        <v>333</v>
+      </c>
+      <c r="T12" t="n">
+        <v>345</v>
+      </c>
+      <c r="U12" t="n">
+        <v>454</v>
+      </c>
+      <c r="V12" t="n">
+        <v>347</v>
+      </c>
+      <c r="W12" t="n">
+        <v>379</v>
+      </c>
+      <c r="X12" t="n">
+        <v>286</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>374</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>621</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>925</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>846</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>803</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>891</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>929</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1162</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1110</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>988</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>823</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>930</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1118</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1311</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1198</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1229</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1363</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1276</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1424</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1530</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>864</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>852</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>873</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1166</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1113</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1213</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1235</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1288</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1309</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1052</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1117</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1047</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>817</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>855</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1794</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1756</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1673</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1787</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1345</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1135</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1013</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>759</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>881</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1647</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1643</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1586</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1324</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>1513</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1556</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1648</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>1748</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1460</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1715</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>1472</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>1268</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>2343</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>2440</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>2538</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>2511</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>3047</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>2445</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>2578</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>2975</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>2376</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>3549</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>2723</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>44722</v>
-      </c>
-      <c r="C12" t="n">
-        <v>55079</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56849</v>
-      </c>
-      <c r="E12" t="n">
-        <v>64658</v>
-      </c>
-      <c r="F12" t="n">
-        <v>72404</v>
-      </c>
-      <c r="G12" t="n">
-        <v>62187</v>
-      </c>
-      <c r="H12" t="n">
-        <v>63802</v>
-      </c>
-      <c r="I12" t="n">
-        <v>55141</v>
-      </c>
-      <c r="J12" t="n">
-        <v>52677</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62072</v>
-      </c>
-      <c r="L12" t="n">
-        <v>51908</v>
-      </c>
-      <c r="M12" t="n">
-        <v>38152</v>
-      </c>
-      <c r="N12" t="n">
-        <v>75661</v>
-      </c>
-      <c r="O12" t="n">
-        <v>93940</v>
-      </c>
-      <c r="P12" t="n">
-        <v>96570</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>85556</v>
-      </c>
-      <c r="R12" t="n">
-        <v>78334</v>
-      </c>
-      <c r="S12" t="n">
-        <v>66071</v>
-      </c>
-      <c r="T12" t="n">
-        <v>64161</v>
-      </c>
-      <c r="U12" t="n">
-        <v>69442</v>
-      </c>
-      <c r="V12" t="n">
-        <v>64472</v>
-      </c>
-      <c r="W12" t="n">
-        <v>67908</v>
-      </c>
-      <c r="X12" t="n">
-        <v>51054</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>52788</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>69332</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>92193</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>109284</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>91000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>102565</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>94076</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>88737</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>94476</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>97726</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>93063</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>82272</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>84754</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>82891</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>103886</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>116202</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>106871</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>123262</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>117542</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>98788</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>117319</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>113437</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>88891</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>90060</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>82802</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>95030</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>113099</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>115885</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>122713</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>101316</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>102491</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>96680</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>85126</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>72396</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>92406</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>92376</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>97985</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>122497</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>135703</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>133144</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>141300</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>145500</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>129029</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>117473</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>112154</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>114182</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>118299</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>102694</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>99299</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>139769</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>160759</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>165405</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>168925</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>177835</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>147159</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>140293</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>146829</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>128826</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>153126</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>112740</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>101061</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>173491</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>205598</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>220146</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>198259</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>232746</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>190714</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>182741</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>201638</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>168862</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>215241</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>158309</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>165088</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>169359</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>204838</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>239779</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>220966</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>227340</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>216748</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>209897</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>193280</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>231893</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>198905</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>197308</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>199341</v>
+      <c r="B13" t="n">
+        <v>45932</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56822</v>
+      </c>
+      <c r="D13" t="n">
+        <v>58218</v>
+      </c>
+      <c r="E13" t="n">
+        <v>66197</v>
+      </c>
+      <c r="F13" t="n">
+        <v>74122</v>
+      </c>
+      <c r="G13" t="n">
+        <v>63923</v>
+      </c>
+      <c r="H13" t="n">
+        <v>65425</v>
+      </c>
+      <c r="I13" t="n">
+        <v>56516</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54126</v>
+      </c>
+      <c r="K13" t="n">
+        <v>64037</v>
+      </c>
+      <c r="L13" t="n">
+        <v>53714</v>
+      </c>
+      <c r="M13" t="n">
+        <v>39513</v>
+      </c>
+      <c r="N13" t="n">
+        <v>77211</v>
+      </c>
+      <c r="O13" t="n">
+        <v>96178</v>
+      </c>
+      <c r="P13" t="n">
+        <v>98907</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>87742</v>
+      </c>
+      <c r="R13" t="n">
+        <v>80371</v>
+      </c>
+      <c r="S13" t="n">
+        <v>67748</v>
+      </c>
+      <c r="T13" t="n">
+        <v>65866</v>
+      </c>
+      <c r="U13" t="n">
+        <v>71145</v>
+      </c>
+      <c r="V13" t="n">
+        <v>65921</v>
+      </c>
+      <c r="W13" t="n">
+        <v>69569</v>
+      </c>
+      <c r="X13" t="n">
+        <v>52353</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>54152</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>70911</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>94086</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>111666</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>92901</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>104619</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>96069</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>90526</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>96343</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>99755</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>95073</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>83997</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>86601</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>84481</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>105903</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>118596</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>109174</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>125743</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>120127</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>100853</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>119631</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>115991</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>90676</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>91977</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>84749</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>97325</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>115833</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>118612</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>125700</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>103774</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>105040</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>99157</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>87157</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>73882</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>94362</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>94287</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>100107</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>125232</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>138849</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>136167</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>144525</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>148780</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>132032</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>119932</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>114704</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>116732</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>120920</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>105197</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>101759</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>143215</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>164504</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>169426</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>172807</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>181837</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>150661</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>143706</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>150307</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>131666</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>156596</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>115491</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>103552</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>178070</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>210652</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>225462</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>203073</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>238438</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>195465</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>187133</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>206477</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>172709</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>220366</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>162217</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>169532</v>
       </c>
     </row>
   </sheetData>
